--- a/Excel/metodos_identificacion_RE.xlsx
+++ b/Excel/metodos_identificacion_RE.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Daniela\Tesis\Trabajo-de-grado_Artefactos\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hold Out" sheetId="1" r:id="rId1"/>
-    <sheet name="Leave One Out" sheetId="2" r:id="rId2"/>
+    <sheet name="K-fold (media TENFOLD)" sheetId="3" r:id="rId2"/>
+    <sheet name="Leave One Out" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="103">
   <si>
     <t>Tipo cla</t>
   </si>
@@ -329,13 +330,55 @@
     <t>[[3282  570]
  [ 806 3046]]</t>
   </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Numero partición</t>
+  </si>
+  <si>
+    <t>Tipo clasificador</t>
+  </si>
+  <si>
+    <t>Random forest__Estima:_70</t>
+  </si>
+  <si>
+    <t>Random forest__Estima:_10</t>
+  </si>
+  <si>
+    <t>LinearSVM_0.2</t>
+  </si>
+  <si>
+    <t>LinearSVM_0.5</t>
+  </si>
+  <si>
+    <t>LinearSVM_0.7</t>
+  </si>
+  <si>
+    <t>LinearSVM_1</t>
+  </si>
+  <si>
+    <t>LinearSVM_1.3</t>
+  </si>
+  <si>
+    <t>[[ 985  166]
+ [ 132 1029]]</t>
+  </si>
+  <si>
+    <t>Red neuronal_RELU</t>
+  </si>
+  <si>
+    <t>[[ 975  175]
+ [ 142 1020]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -360,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,7 +462,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,18 +774,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,13 +2270,9176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>0.95573727933541019</v>
+      </c>
+      <c r="D2">
+        <v>0.95549976492277189</v>
+      </c>
+      <c r="E2">
+        <v>0.95573727933541019</v>
+      </c>
+      <c r="F2">
+        <v>0.96064311933478164</v>
+      </c>
+      <c r="G2">
+        <v>0.9504344717593356</v>
+      </c>
+      <c r="H2">
+        <v>0.9610803238965937</v>
+      </c>
+      <c r="I2">
+        <v>0.95575739782796465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>0.95547767393561789</v>
+      </c>
+      <c r="D3">
+        <v>0.95518930004745606</v>
+      </c>
+      <c r="E3">
+        <v>0.95547767393561789</v>
+      </c>
+      <c r="F3">
+        <v>0.96133965588293047</v>
+      </c>
+      <c r="G3">
+        <v>0.94911860140855553</v>
+      </c>
+      <c r="H3">
+        <v>0.96184461245313169</v>
+      </c>
+      <c r="I3">
+        <v>0.95548160693084361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>0.95534787123572174</v>
+      </c>
+      <c r="D4">
+        <v>0.95508186255384975</v>
+      </c>
+      <c r="E4">
+        <v>0.95534787123572174</v>
+      </c>
+      <c r="F4">
+        <v>0.96085574639642135</v>
+      </c>
+      <c r="G4">
+        <v>0.94940571509910676</v>
+      </c>
+      <c r="H4">
+        <v>0.9613350867487731</v>
+      </c>
+      <c r="I4">
+        <v>0.95537040092393999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>0.95521806853582558</v>
+      </c>
+      <c r="D5">
+        <v>0.95502123009903384</v>
+      </c>
+      <c r="E5">
+        <v>0.95521806853582558</v>
+      </c>
+      <c r="F5">
+        <v>0.95914400622245721</v>
+      </c>
+      <c r="G5">
+        <v>0.95093752729601988</v>
+      </c>
+      <c r="H5">
+        <v>0.95951292577747149</v>
+      </c>
+      <c r="I5">
+        <v>0.9552252265367458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.95495846313603328</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.95468341182626892</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.95495846313603328</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.96058849402510194</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.94888971922707377</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.9610803238965937</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.95498502156183385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.95392004153686394</v>
+      </c>
+      <c r="D7">
+        <v>0.95351585630667435</v>
+      </c>
+      <c r="E7">
+        <v>0.95392004153686394</v>
+      </c>
+      <c r="F7">
+        <v>0.9619649223126614</v>
+      </c>
+      <c r="G7">
+        <v>0.94524863236830781</v>
+      </c>
+      <c r="H7">
+        <v>0.96264125184804161</v>
+      </c>
+      <c r="I7">
+        <v>0.95394494210817471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>0.9523624091381101</v>
+      </c>
+      <c r="D8">
+        <v>0.9519335215790683</v>
+      </c>
+      <c r="E8">
+        <v>0.9523624091381101</v>
+      </c>
+      <c r="F8">
+        <v>0.96061263825643439</v>
+      </c>
+      <c r="G8">
+        <v>0.94342647139700631</v>
+      </c>
+      <c r="H8">
+        <v>0.96133185166493584</v>
+      </c>
+      <c r="I8">
+        <v>0.95237916153097113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0.95171339563862922</v>
+      </c>
+      <c r="D9">
+        <v>0.95145340199367734</v>
+      </c>
+      <c r="E9">
+        <v>0.95171339563862922</v>
+      </c>
+      <c r="F9">
+        <v>0.95669658025097215</v>
+      </c>
+      <c r="G9">
+        <v>0.94630003461539713</v>
+      </c>
+      <c r="H9">
+        <v>0.957174768934137</v>
+      </c>
+      <c r="I9">
+        <v>0.95173740177476707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>0.8851246105919004</v>
+      </c>
+      <c r="D10">
+        <v>0.88282878568498702</v>
+      </c>
+      <c r="E10">
+        <v>0.8851246105919004</v>
+      </c>
+      <c r="F10">
+        <v>0.90085741653622409</v>
+      </c>
+      <c r="G10">
+        <v>0.86556770868717059</v>
+      </c>
+      <c r="H10">
+        <v>0.90474538272659344</v>
+      </c>
+      <c r="I10">
+        <v>0.88515654570688196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>0.87928348909657328</v>
+      </c>
+      <c r="D11">
+        <v>0.87495531748014876</v>
+      </c>
+      <c r="E11">
+        <v>0.87928348909657328</v>
+      </c>
+      <c r="F11">
+        <v>0.9074368919715986</v>
+      </c>
+      <c r="G11">
+        <v>0.84483405637457087</v>
+      </c>
+      <c r="H11">
+        <v>0.91382383674472922</v>
+      </c>
+      <c r="I11">
+        <v>0.8793289465596501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>0.86902907580477673</v>
+      </c>
+      <c r="D12">
+        <v>0.87164615248383948</v>
+      </c>
+      <c r="E12">
+        <v>0.86902907580477673</v>
+      </c>
+      <c r="F12">
+        <v>0.85458930344729744</v>
+      </c>
+      <c r="G12">
+        <v>0.88945233265720081</v>
+      </c>
+      <c r="H12">
+        <v>0.84866520440877224</v>
+      </c>
+      <c r="I12">
+        <v>0.86905876853298658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>0.8677310488058152</v>
+      </c>
+      <c r="D13">
+        <v>0.8690372668550479</v>
+      </c>
+      <c r="E13">
+        <v>0.8677310488058152</v>
+      </c>
+      <c r="F13">
+        <v>0.86055722381100952</v>
+      </c>
+      <c r="G13">
+        <v>0.87778095894355102</v>
+      </c>
+      <c r="H13">
+        <v>0.85776306892993137</v>
+      </c>
+      <c r="I13">
+        <v>0.86777201393674108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0.85163551401869153</v>
+      </c>
+      <c r="D14">
+        <v>0.85696379369248854</v>
+      </c>
+      <c r="E14">
+        <v>0.85163551401869153</v>
+      </c>
+      <c r="F14">
+        <v>0.82728680107037278</v>
+      </c>
+      <c r="G14">
+        <v>0.8889298666174934</v>
+      </c>
+      <c r="H14">
+        <v>0.81441537182436086</v>
+      </c>
+      <c r="I14">
+        <v>0.85167261922092719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>0.82956905503634482</v>
+      </c>
+      <c r="D15">
+        <v>0.82981223496838097</v>
+      </c>
+      <c r="E15">
+        <v>0.82956905503634482</v>
+      </c>
+      <c r="F15">
+        <v>0.82867535616041033</v>
+      </c>
+      <c r="G15">
+        <v>0.83103076241220797</v>
+      </c>
+      <c r="H15">
+        <v>0.82817984478067752</v>
+      </c>
+      <c r="I15">
+        <v>0.82960530359644269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>0.8290498442367602</v>
+      </c>
+      <c r="D16">
+        <v>0.80948681390921284</v>
+      </c>
+      <c r="E16">
+        <v>0.8290498442367602</v>
+      </c>
+      <c r="F16">
+        <v>0.91411072802627058</v>
+      </c>
+      <c r="G16">
+        <v>0.72638793184325379</v>
+      </c>
+      <c r="H16">
+        <v>0.93175833276719366</v>
+      </c>
+      <c r="I16">
+        <v>0.82907313230522361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0.82268951194184847</v>
+      </c>
+      <c r="D17">
+        <v>0.81708257944457996</v>
+      </c>
+      <c r="E17">
+        <v>0.82268951194184847</v>
+      </c>
+      <c r="F17">
+        <v>0.84380540571631724</v>
+      </c>
+      <c r="G17">
+        <v>0.79210785122496452</v>
+      </c>
+      <c r="H17">
+        <v>0.85335769351462742</v>
+      </c>
+      <c r="I17">
+        <v>0.82273277236979592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>0.78920041536863961</v>
+      </c>
+      <c r="D18">
+        <v>0.78597761752549788</v>
+      </c>
+      <c r="E18">
+        <v>0.78920041536863961</v>
+      </c>
+      <c r="F18">
+        <v>0.7982461193735968</v>
+      </c>
+      <c r="G18">
+        <v>0.77418306045401164</v>
+      </c>
+      <c r="H18">
+        <v>0.80430169097832171</v>
+      </c>
+      <c r="I18">
+        <v>0.78924237571616662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>0.3485202492211838</v>
+      </c>
+      <c r="D19">
+        <v>0.49379324134229158</v>
+      </c>
+      <c r="E19">
+        <v>0.3485202492211838</v>
+      </c>
+      <c r="F19">
+        <v>0.40375888494280621</v>
+      </c>
+      <c r="G19">
+        <v>0.63551604439829057</v>
+      </c>
+      <c r="H19">
+        <v>6.150460514184225E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.34851032477006638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>0.93587746625129808</v>
+      </c>
+      <c r="D20">
+        <v>0.93567184715573593</v>
+      </c>
+      <c r="E20">
+        <v>0.93587746625129808</v>
+      </c>
+      <c r="F20">
+        <v>0.93861950702996988</v>
+      </c>
+      <c r="G20">
+        <v>0.93277091400823653</v>
+      </c>
+      <c r="H20">
+        <v>0.93902756614937677</v>
+      </c>
+      <c r="I20">
+        <v>0.93589924007880665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0.93444963655244029</v>
+      </c>
+      <c r="D21">
+        <v>0.93416125415913598</v>
+      </c>
+      <c r="E21">
+        <v>0.93444963655244029</v>
+      </c>
+      <c r="F21">
+        <v>0.93821598945525975</v>
+      </c>
+      <c r="G21">
+        <v>0.93017152414504822</v>
+      </c>
+      <c r="H21">
+        <v>0.93877280329719737</v>
+      </c>
+      <c r="I21">
+        <v>0.93447216372112274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0.93198338525441327</v>
+      </c>
+      <c r="D22">
+        <v>0.93165723005937895</v>
+      </c>
+      <c r="E22">
+        <v>0.93198338525441327</v>
+      </c>
+      <c r="F22">
+        <v>0.93607380190569955</v>
+      </c>
+      <c r="G22">
+        <v>0.92731413634584337</v>
+      </c>
+      <c r="H22">
+        <v>0.93669911455755384</v>
+      </c>
+      <c r="I22">
+        <v>0.93200662545169854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>0.93029595015576327</v>
+      </c>
+      <c r="D23">
+        <v>0.92997254774898885</v>
+      </c>
+      <c r="E23">
+        <v>0.93029595015576327</v>
+      </c>
+      <c r="F23">
+        <v>0.93426290007912494</v>
+      </c>
+      <c r="G23">
+        <v>0.92575967856206987</v>
+      </c>
+      <c r="H23">
+        <v>0.93488342375392652</v>
+      </c>
+      <c r="I23">
+        <v>0.93032155115799819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.92185877466251287</v>
+      </c>
+      <c r="D24">
+        <v>0.92110172025009107</v>
+      </c>
+      <c r="E24">
+        <v>0.92185877466251287</v>
+      </c>
+      <c r="F24">
+        <v>0.93018069714485896</v>
+      </c>
+      <c r="G24">
+        <v>0.91228231929630454</v>
+      </c>
+      <c r="H24">
+        <v>0.93151327516652604</v>
+      </c>
+      <c r="I24">
+        <v>0.92189779723141529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.85410176531671855</v>
+      </c>
+      <c r="D25">
+        <v>0.86288923649055649</v>
+      </c>
+      <c r="E25">
+        <v>0.85410176531671855</v>
+      </c>
+      <c r="F25">
+        <v>0.81403853324519926</v>
+      </c>
+      <c r="G25">
+        <v>0.91830685417212587</v>
+      </c>
+      <c r="H25">
+        <v>0.79006327823985556</v>
+      </c>
+      <c r="I25">
+        <v>0.85418506620599066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0.85124610591900307</v>
+      </c>
+      <c r="D26">
+        <v>0.86041852128808649</v>
+      </c>
+      <c r="E26">
+        <v>0.85124610591900307</v>
+      </c>
+      <c r="F26">
+        <v>0.81070210660638642</v>
+      </c>
+      <c r="G26">
+        <v>0.91700715924053178</v>
+      </c>
+      <c r="H26">
+        <v>0.78566437299222613</v>
+      </c>
+      <c r="I26">
+        <v>0.85133576611637884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>0.84657320872274144</v>
+      </c>
+      <c r="D27">
+        <v>0.8567072211564466</v>
+      </c>
+      <c r="E27">
+        <v>0.84657320872274144</v>
+      </c>
+      <c r="F27">
+        <v>0.80403120990150079</v>
+      </c>
+      <c r="G27">
+        <v>0.91727486242805978</v>
+      </c>
+      <c r="H27">
+        <v>0.77608286343740596</v>
+      </c>
+      <c r="I27">
+        <v>0.84667886293273287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>0.83969366562824499</v>
+      </c>
+      <c r="D28">
+        <v>0.85146754808054304</v>
+      </c>
+      <c r="E28">
+        <v>0.83969366562824499</v>
+      </c>
+      <c r="F28">
+        <v>0.79400804836428995</v>
+      </c>
+      <c r="G28">
+        <v>0.91856485210814243</v>
+      </c>
+      <c r="H28">
+        <v>0.76107045689089037</v>
+      </c>
+      <c r="I28">
+        <v>0.8398176544995164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0.83346313603322952</v>
+      </c>
+      <c r="D29">
+        <v>0.82881597311230726</v>
+      </c>
+      <c r="E29">
+        <v>0.83346313603322952</v>
+      </c>
+      <c r="F29">
+        <v>0.85269659134551323</v>
+      </c>
+      <c r="G29">
+        <v>0.80638832005331418</v>
+      </c>
+      <c r="H29">
+        <v>0.8606431023159965</v>
+      </c>
+      <c r="I29">
+        <v>0.83351571118465539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>0.83346313603322952</v>
+      </c>
+      <c r="D30">
+        <v>0.82877067966740126</v>
+      </c>
+      <c r="E30">
+        <v>0.83346313603322952</v>
+      </c>
+      <c r="F30">
+        <v>0.85288372281109637</v>
+      </c>
+      <c r="G30">
+        <v>0.80612708703346048</v>
+      </c>
+      <c r="H30">
+        <v>0.86090110025201305</v>
+      </c>
+      <c r="I30">
+        <v>0.83351409364273676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D31">
+        <v>0.82861492995315478</v>
+      </c>
+      <c r="E31">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F31">
+        <v>0.85284179244904168</v>
+      </c>
+      <c r="G31">
+        <v>0.80586585401360677</v>
+      </c>
+      <c r="H31">
+        <v>0.86090110025201305</v>
+      </c>
+      <c r="I31">
+        <v>0.83338347713280991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0.83307372793354095</v>
+      </c>
+      <c r="D32">
+        <v>0.82834719233601961</v>
+      </c>
+      <c r="E32">
+        <v>0.83307372793354095</v>
+      </c>
+      <c r="F32">
+        <v>0.85256355093540781</v>
+      </c>
+      <c r="G32">
+        <v>0.80560785607759022</v>
+      </c>
+      <c r="H32">
+        <v>0.86063986723215935</v>
+      </c>
+      <c r="I32">
+        <v>0.83312386165487473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>0.83216510903426788</v>
+      </c>
+      <c r="D33">
+        <v>0.82753005509281918</v>
+      </c>
+      <c r="E33">
+        <v>0.83216510903426788</v>
+      </c>
+      <c r="F33">
+        <v>0.85110275852226025</v>
+      </c>
+      <c r="G33">
+        <v>0.80534015289006211</v>
+      </c>
+      <c r="H33">
+        <v>0.85907893928071144</v>
+      </c>
+      <c r="I33">
+        <v>0.83220954608538689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0.82892004153686405</v>
+      </c>
+      <c r="D34">
+        <v>0.84367556309238168</v>
+      </c>
+      <c r="E34">
+        <v>0.82892004153686405</v>
+      </c>
+      <c r="F34">
+        <v>0.77704032812298007</v>
+      </c>
+      <c r="G34">
+        <v>0.92323146054329996</v>
+      </c>
+      <c r="H34">
+        <v>0.73480238490380478</v>
+      </c>
+      <c r="I34">
+        <v>0.82901692272355232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>0.77401349948078924</v>
+      </c>
+      <c r="D35">
+        <v>0.7694323702916066</v>
+      </c>
+      <c r="E35">
+        <v>0.77401349948078924</v>
+      </c>
+      <c r="F35">
+        <v>0.78558793334912735</v>
+      </c>
+      <c r="G35">
+        <v>0.75422016686562432</v>
+      </c>
+      <c r="H35">
+        <v>0.79395912795080092</v>
+      </c>
+      <c r="I35">
+        <v>0.77408964740821262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0.7642782969885773</v>
+      </c>
+      <c r="D36">
+        <v>0.76093031123491173</v>
+      </c>
+      <c r="E36">
+        <v>0.7642782969885773</v>
+      </c>
+      <c r="F36">
+        <v>0.77201799552994377</v>
+      </c>
+      <c r="G36">
+        <v>0.75029843648398153</v>
+      </c>
+      <c r="H36">
+        <v>0.77835955368783383</v>
+      </c>
+      <c r="I36">
+        <v>0.76432899508590768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>0.762331256490135</v>
+      </c>
+      <c r="D37">
+        <v>0.75936846590956197</v>
+      </c>
+      <c r="E37">
+        <v>0.762331256490135</v>
+      </c>
+      <c r="F37">
+        <v>0.7690749700272943</v>
+      </c>
+      <c r="G37">
+        <v>0.75003396838029057</v>
+      </c>
+      <c r="H37">
+        <v>0.77472493699674216</v>
+      </c>
+      <c r="I37">
+        <v>0.76237945268851648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>0.76025441329179655</v>
+      </c>
+      <c r="D38">
+        <v>0.75771124429372261</v>
+      </c>
+      <c r="E38">
+        <v>0.76025441329179655</v>
+      </c>
+      <c r="F38">
+        <v>0.76594734603348225</v>
+      </c>
+      <c r="G38">
+        <v>0.74977273536043687</v>
+      </c>
+      <c r="H38">
+        <v>0.77082908728579702</v>
+      </c>
+      <c r="I38">
+        <v>0.76030091132311695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>0.75843717549325018</v>
+      </c>
+      <c r="D39">
+        <v>0.75613066329037126</v>
+      </c>
+      <c r="E39">
+        <v>0.75843717549325018</v>
+      </c>
+      <c r="F39">
+        <v>0.76352222399636949</v>
+      </c>
+      <c r="G39">
+        <v>0.74898903630087577</v>
+      </c>
+      <c r="H39">
+        <v>0.76797169948659216</v>
+      </c>
+      <c r="I39">
+        <v>0.75848036789373396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>0.9559968847352025</v>
+      </c>
+      <c r="D45">
+        <v>0.9557596378903519</v>
+      </c>
+      <c r="E45">
+        <v>0.9559968847352025</v>
+      </c>
+      <c r="F45">
+        <v>0.96013927736145266</v>
+      </c>
+      <c r="G45">
+        <v>0.95150892509930307</v>
+      </c>
+      <c r="H45">
+        <v>0.96068393033204191</v>
+      </c>
+      <c r="I45">
+        <v>0.95609642771567249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>0.95573727933541019</v>
+      </c>
+      <c r="D46">
+        <v>0.95539755319344644</v>
+      </c>
+      <c r="E46">
+        <v>0.95573727933541019</v>
+      </c>
+      <c r="F46">
+        <v>0.96231913644646616</v>
+      </c>
+      <c r="G46">
+        <v>0.94865711236897121</v>
+      </c>
+      <c r="H46">
+        <v>0.96296065210539605</v>
+      </c>
+      <c r="I46">
+        <v>0.95580888223718352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47">
+        <v>0.95560747663551404</v>
+      </c>
+      <c r="D47">
+        <v>0.95537690451220592</v>
+      </c>
+      <c r="E47">
+        <v>0.95560747663551404</v>
+      </c>
+      <c r="F47">
+        <v>0.95961678294802621</v>
+      </c>
+      <c r="G47">
+        <v>0.95125877919168533</v>
+      </c>
+      <c r="H47">
+        <v>0.96016722023669399</v>
+      </c>
+      <c r="I47">
+        <v>0.95571299971418977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>0.95495846313603328</v>
+      </c>
+      <c r="D48">
+        <v>0.95479850994059345</v>
+      </c>
+      <c r="E48">
+        <v>0.95495846313603328</v>
+      </c>
+      <c r="F48">
+        <v>0.95766122941139176</v>
+      </c>
+      <c r="G48">
+        <v>0.95202072232583212</v>
+      </c>
+      <c r="H48">
+        <v>0.95805888031240105</v>
+      </c>
+      <c r="I48">
+        <v>0.95503980131911659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>0.95482866043613712</v>
+      </c>
+      <c r="D49">
+        <v>0.95457608413589723</v>
+      </c>
+      <c r="E49">
+        <v>0.95482866043613712</v>
+      </c>
+      <c r="F49">
+        <v>0.95882391593815464</v>
+      </c>
+      <c r="G49">
+        <v>0.95045118025280895</v>
+      </c>
+      <c r="H49">
+        <v>0.95938586080259958</v>
+      </c>
+      <c r="I49">
+        <v>0.95491852052770432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>0.95482866043613701</v>
+      </c>
+      <c r="D50">
+        <v>0.95465457090670069</v>
+      </c>
+      <c r="E50">
+        <v>0.95482866043613701</v>
+      </c>
+      <c r="F50">
+        <v>0.95788342536774063</v>
+      </c>
+      <c r="G50">
+        <v>0.95150022337387918</v>
+      </c>
+      <c r="H50">
+        <v>0.95828956324590842</v>
+      </c>
+      <c r="I50">
+        <v>0.95489489330989374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>0.95456905503634482</v>
+      </c>
+      <c r="D51">
+        <v>0.95424396802199629</v>
+      </c>
+      <c r="E51">
+        <v>0.95456905503634482</v>
+      </c>
+      <c r="F51">
+        <v>0.96073948691464117</v>
+      </c>
+      <c r="G51">
+        <v>0.94791277859108569</v>
+      </c>
+      <c r="H51">
+        <v>0.96144372258022281</v>
+      </c>
+      <c r="I51">
+        <v>0.95467825058565436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52">
+        <v>0.95443925233644844</v>
+      </c>
+      <c r="D52">
+        <v>0.9539173609165662</v>
+      </c>
+      <c r="E52">
+        <v>0.95443925233644844</v>
+      </c>
+      <c r="F52">
+        <v>0.96338455289074187</v>
+      </c>
+      <c r="G52">
+        <v>0.94469385999429156</v>
+      </c>
+      <c r="H52">
+        <v>0.9643219695333809</v>
+      </c>
+      <c r="I52">
+        <v>0.95450791476383623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53">
+        <v>0.88512461059190028</v>
+      </c>
+      <c r="D53">
+        <v>0.88279675834325244</v>
+      </c>
+      <c r="E53">
+        <v>0.88512461059190028</v>
+      </c>
+      <c r="F53">
+        <v>0.90080122540355845</v>
+      </c>
+      <c r="G53">
+        <v>0.86562044994587806</v>
+      </c>
+      <c r="H53">
+        <v>0.90483511757583956</v>
+      </c>
+      <c r="I53">
+        <v>0.88522778376085864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>0.87928348909657328</v>
+      </c>
+      <c r="D54">
+        <v>0.874921600268463</v>
+      </c>
+      <c r="E54">
+        <v>0.87928348909657328</v>
+      </c>
+      <c r="F54">
+        <v>0.90738930095700809</v>
+      </c>
+      <c r="G54">
+        <v>0.84490920260801561</v>
+      </c>
+      <c r="H54">
+        <v>0.91396180286437545</v>
+      </c>
+      <c r="I54">
+        <v>0.87943550273619553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>0.86902907580477662</v>
+      </c>
+      <c r="D55">
+        <v>0.87160381576578461</v>
+      </c>
+      <c r="E55">
+        <v>0.86902907580477662</v>
+      </c>
+      <c r="F55">
+        <v>0.85451963153716548</v>
+      </c>
+      <c r="G55">
+        <v>0.88946991901611372</v>
+      </c>
+      <c r="H55">
+        <v>0.84868708862448339</v>
+      </c>
+      <c r="I55">
+        <v>0.86907850382029861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>0.86773104880581509</v>
+      </c>
+      <c r="D56">
+        <v>0.86901124914359784</v>
+      </c>
+      <c r="E56">
+        <v>0.86773104880581509</v>
+      </c>
+      <c r="F56">
+        <v>0.86050913551770203</v>
+      </c>
+      <c r="G56">
+        <v>0.87786746822665851</v>
+      </c>
+      <c r="H56">
+        <v>0.85784906974971209</v>
+      </c>
+      <c r="I56">
+        <v>0.8678582689881853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <v>0.85163551401869153</v>
+      </c>
+      <c r="D57">
+        <v>0.85693432006383796</v>
+      </c>
+      <c r="E57">
+        <v>0.85163551401869153</v>
+      </c>
+      <c r="F57">
+        <v>0.82726470434991273</v>
+      </c>
+      <c r="G57">
+        <v>0.88897247063308948</v>
+      </c>
+      <c r="H57">
+        <v>0.81445492152726118</v>
+      </c>
+      <c r="I57">
+        <v>0.85171369608017522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>0.82956905503634482</v>
+      </c>
+      <c r="D58">
+        <v>0.82975284490421619</v>
+      </c>
+      <c r="E58">
+        <v>0.82956905503634482</v>
+      </c>
+      <c r="F58">
+        <v>0.8286173851307036</v>
+      </c>
+      <c r="G58">
+        <v>0.83099588943208502</v>
+      </c>
+      <c r="H58">
+        <v>0.82816732888855293</v>
+      </c>
+      <c r="I58">
+        <v>0.82958160916031898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>0.82892004153686394</v>
+      </c>
+      <c r="D59">
+        <v>0.8091652833602746</v>
+      </c>
+      <c r="E59">
+        <v>0.82892004153686394</v>
+      </c>
+      <c r="F59">
+        <v>0.91430510331067794</v>
+      </c>
+      <c r="G59">
+        <v>0.72578817888026848</v>
+      </c>
+      <c r="H59">
+        <v>0.93201181108728948</v>
+      </c>
+      <c r="I59">
+        <v>0.82889999498377898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>0.82255970924195232</v>
+      </c>
+      <c r="D60">
+        <v>0.81686352092712122</v>
+      </c>
+      <c r="E60">
+        <v>0.82255970924195232</v>
+      </c>
+      <c r="F60">
+        <v>0.84372058066519018</v>
+      </c>
+      <c r="G60">
+        <v>0.79181474441842126</v>
+      </c>
+      <c r="H60">
+        <v>0.85337753355940937</v>
+      </c>
+      <c r="I60">
+        <v>0.82259613898891537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61">
+        <v>0.78920041536863961</v>
+      </c>
+      <c r="D61">
+        <v>0.78581206161015116</v>
+      </c>
+      <c r="E61">
+        <v>0.78920041536863961</v>
+      </c>
+      <c r="F61">
+        <v>0.79810891724876143</v>
+      </c>
+      <c r="G61">
+        <v>0.77399947354970156</v>
+      </c>
+      <c r="H61">
+        <v>0.8043021231587888</v>
+      </c>
+      <c r="I61">
+        <v>0.78915079835424518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>0.49701453790238842</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.49701453790238842</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.99404923059451122</v>
+      </c>
+      <c r="I64">
+        <v>0.49702461529725561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>0.34852024922118391</v>
+      </c>
+      <c r="D65">
+        <v>0.49376429976857511</v>
+      </c>
+      <c r="E65">
+        <v>0.34852024922118391</v>
+      </c>
+      <c r="F65">
+        <v>0.40380722007321712</v>
+      </c>
+      <c r="G65">
+        <v>0.63559654767588825</v>
+      </c>
+      <c r="H65">
+        <v>6.1525776941166323E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.34856116230852729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>0.93769470404984423</v>
+      </c>
+      <c r="D66">
+        <v>0.93739913091932991</v>
+      </c>
+      <c r="E66">
+        <v>0.93769470404984423</v>
+      </c>
+      <c r="F66">
+        <v>0.94083029867271772</v>
+      </c>
+      <c r="G66">
+        <v>0.9340873795596899</v>
+      </c>
+      <c r="H66">
+        <v>0.94153016474294093</v>
+      </c>
+      <c r="I66">
+        <v>0.93780877215131542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>0.936656282450675</v>
+      </c>
+      <c r="D67">
+        <v>0.93641939307446309</v>
+      </c>
+      <c r="E67">
+        <v>0.936656282450675</v>
+      </c>
+      <c r="F67">
+        <v>0.93909767454657955</v>
+      </c>
+      <c r="G67">
+        <v>0.93385869107610442</v>
+      </c>
+      <c r="H67">
+        <v>0.93970317526164426</v>
+      </c>
+      <c r="I67">
+        <v>0.93678093316887434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>0.93509865005192105</v>
+      </c>
+      <c r="D68">
+        <v>0.93481154486441842</v>
+      </c>
+      <c r="E68">
+        <v>0.93509865005192105</v>
+      </c>
+      <c r="F68">
+        <v>0.9382282643159342</v>
+      </c>
+      <c r="G68">
+        <v>0.93152633818554298</v>
+      </c>
+      <c r="H68">
+        <v>0.93892219455318837</v>
+      </c>
+      <c r="I68">
+        <v>0.93522426636936573</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>0.93367082035306337</v>
+      </c>
+      <c r="D69">
+        <v>0.93337367024958806</v>
+      </c>
+      <c r="E69">
+        <v>0.93367082035306337</v>
+      </c>
+      <c r="F69">
+        <v>0.93690199699956433</v>
+      </c>
+      <c r="G69">
+        <v>0.92997191016387037</v>
+      </c>
+      <c r="H69">
+        <v>0.9376111741021449</v>
+      </c>
+      <c r="I69">
+        <v>0.93379154213300763</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>0.92666147455867076</v>
+      </c>
+      <c r="D70">
+        <v>0.92599972445144418</v>
+      </c>
+      <c r="E70">
+        <v>0.92666147455867076</v>
+      </c>
+      <c r="F70">
+        <v>0.93342892817196055</v>
+      </c>
+      <c r="G70">
+        <v>0.91874554569810996</v>
+      </c>
+      <c r="H70">
+        <v>0.9347451206193107</v>
+      </c>
+      <c r="I70">
+        <v>0.92674533315871033</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>0.85695742471443404</v>
+      </c>
+      <c r="D71">
+        <v>0.86493019801738724</v>
+      </c>
+      <c r="E71">
+        <v>0.85695742471443404</v>
+      </c>
+      <c r="F71">
+        <v>0.81939976630196587</v>
+      </c>
+      <c r="G71">
+        <v>0.91641732240026519</v>
+      </c>
+      <c r="H71">
+        <v>0.79811041798552229</v>
+      </c>
+      <c r="I71">
+        <v>0.85726387019289374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>0.85695742471443404</v>
+      </c>
+      <c r="D72">
+        <v>0.86503133604071958</v>
+      </c>
+      <c r="E72">
+        <v>0.85695742471443404</v>
+      </c>
+      <c r="F72">
+        <v>0.81897137025745526</v>
+      </c>
+      <c r="G72">
+        <v>0.91718405023881966</v>
+      </c>
+      <c r="H72">
+        <v>0.79733055706779987</v>
+      </c>
+      <c r="I72">
+        <v>0.85725730365330988</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>0.85345275181723779</v>
+      </c>
+      <c r="D73">
+        <v>0.86229363138658588</v>
+      </c>
+      <c r="E73">
+        <v>0.85345275181723779</v>
+      </c>
+      <c r="F73">
+        <v>0.81347766214483286</v>
+      </c>
+      <c r="G73">
+        <v>0.91794741508907185</v>
+      </c>
+      <c r="H73">
+        <v>0.78954527323644386</v>
+      </c>
+      <c r="I73">
+        <v>0.85374634416275785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>0.84994807892004154</v>
+      </c>
+      <c r="D74">
+        <v>0.8596155307409844</v>
+      </c>
+      <c r="E74">
+        <v>0.84994807892004154</v>
+      </c>
+      <c r="F74">
+        <v>0.80806455971576319</v>
+      </c>
+      <c r="G74">
+        <v>0.91894972881660719</v>
+      </c>
+      <c r="H74">
+        <v>0.78158016334388869</v>
+      </c>
+      <c r="I74">
+        <v>0.85026494608024783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>0.83385254413291798</v>
+      </c>
+      <c r="D75">
+        <v>0.84723360059843589</v>
+      </c>
+      <c r="E75">
+        <v>0.83385254413291798</v>
+      </c>
+      <c r="F75">
+        <v>0.78504228970424961</v>
+      </c>
+      <c r="G75">
+        <v>0.92098118690945441</v>
+      </c>
+      <c r="H75">
+        <v>0.74724284590996526</v>
+      </c>
+      <c r="I75">
+        <v>0.83411201640970978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>0.83385254413291798</v>
+      </c>
+      <c r="D76">
+        <v>0.82932268320151126</v>
+      </c>
+      <c r="E76">
+        <v>0.83385254413291798</v>
+      </c>
+      <c r="F76">
+        <v>0.85230685785088833</v>
+      </c>
+      <c r="G76">
+        <v>0.80766404140496872</v>
+      </c>
+      <c r="H76">
+        <v>0.86020086235938509</v>
+      </c>
+      <c r="I76">
+        <v>0.83393245188217702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>0.83372274143302183</v>
+      </c>
+      <c r="D77">
+        <v>0.82907984064410722</v>
+      </c>
+      <c r="E77">
+        <v>0.83372274143302183</v>
+      </c>
+      <c r="F77">
+        <v>0.85267957347468637</v>
+      </c>
+      <c r="G77">
+        <v>0.80689873528251965</v>
+      </c>
+      <c r="H77">
+        <v>0.86072940358560079</v>
+      </c>
+      <c r="I77">
+        <v>0.83381406943406033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>0.83359293873312568</v>
+      </c>
+      <c r="D78">
+        <v>0.82887838170297001</v>
+      </c>
+      <c r="E78">
+        <v>0.83359293873312568</v>
+      </c>
+      <c r="F78">
+        <v>0.85284415354498089</v>
+      </c>
+      <c r="G78">
+        <v>0.80638267290767407</v>
+      </c>
+      <c r="H78">
+        <v>0.86099367419870854</v>
+      </c>
+      <c r="I78">
+        <v>0.83368817355319136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>0.83346313603322952</v>
+      </c>
+      <c r="D79">
+        <v>0.82881192765156342</v>
+      </c>
+      <c r="E79">
+        <v>0.83346313603322952</v>
+      </c>
+      <c r="F79">
+        <v>0.85239711828283937</v>
+      </c>
+      <c r="G79">
+        <v>0.80663777494849032</v>
+      </c>
+      <c r="H79">
+        <v>0.86046513297249294</v>
+      </c>
+      <c r="I79">
+        <v>0.83355145396049179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>0.83307372793354106</v>
+      </c>
+      <c r="D80">
+        <v>0.82835536044578961</v>
+      </c>
+      <c r="E80">
+        <v>0.83307372793354106</v>
+      </c>
+      <c r="F80">
+        <v>0.85228446538902403</v>
+      </c>
+      <c r="G80">
+        <v>0.8058802683914511</v>
+      </c>
+      <c r="H80">
+        <v>0.86044580536804649</v>
+      </c>
+      <c r="I80">
+        <v>0.83316303687974891</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>0.76622533748701982</v>
+      </c>
+      <c r="D81">
+        <v>0.76190040867449271</v>
+      </c>
+      <c r="E81">
+        <v>0.76622533748701982</v>
+      </c>
+      <c r="F81">
+        <v>0.77624531085987569</v>
+      </c>
+      <c r="G81">
+        <v>0.74826476333490521</v>
+      </c>
+      <c r="H81">
+        <v>0.78428816073044327</v>
+      </c>
+      <c r="I81">
+        <v>0.7662764620326743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>0.75246625129802691</v>
+      </c>
+      <c r="D82">
+        <v>0.74938672142252627</v>
+      </c>
+      <c r="E82">
+        <v>0.75246625129802691</v>
+      </c>
+      <c r="F82">
+        <v>0.75884505287406523</v>
+      </c>
+      <c r="G82">
+        <v>0.74038349730973019</v>
+      </c>
+      <c r="H82">
+        <v>0.7646735930614128</v>
+      </c>
+      <c r="I82">
+        <v>0.75252854518557144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>0.75103842159916923</v>
+      </c>
+      <c r="D83">
+        <v>0.74888501424117371</v>
+      </c>
+      <c r="E83">
+        <v>0.75103842159916923</v>
+      </c>
+      <c r="F83">
+        <v>0.75554379167197805</v>
+      </c>
+      <c r="G83">
+        <v>0.74253631746190685</v>
+      </c>
+      <c r="H83">
+        <v>0.75966542261186576</v>
+      </c>
+      <c r="I83">
+        <v>0.7511008700368863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>0.75064901349948077</v>
+      </c>
+      <c r="D84">
+        <v>0.74834671484008952</v>
+      </c>
+      <c r="E84">
+        <v>0.75064901349948077</v>
+      </c>
+      <c r="F84">
+        <v>0.75535472009398297</v>
+      </c>
+      <c r="G84">
+        <v>0.74169700070530031</v>
+      </c>
+      <c r="H84">
+        <v>0.75975080578477983</v>
+      </c>
+      <c r="I84">
+        <v>0.75072390324504001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>0.74740394600207682</v>
+      </c>
+      <c r="D85">
+        <v>0.74571561572019252</v>
+      </c>
+      <c r="E85">
+        <v>0.74740394600207682</v>
+      </c>
+      <c r="F85">
+        <v>0.75080137585986162</v>
+      </c>
+      <c r="G85">
+        <v>0.74094053326044351</v>
+      </c>
+      <c r="H85">
+        <v>0.75405998052820133</v>
+      </c>
+      <c r="I85">
+        <v>0.74750025689432231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0.5</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>0.5</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>0.5</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
+        <v>0.5</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0.5</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>0.5</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.5</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91">
+        <v>0.95755451713395634</v>
+      </c>
+      <c r="D91">
+        <v>0.95740435914064803</v>
+      </c>
+      <c r="E91">
+        <v>0.95755451713395634</v>
+      </c>
+      <c r="F91">
+        <v>0.96109289051871505</v>
+      </c>
+      <c r="G91">
+        <v>0.95383043017735858</v>
+      </c>
+      <c r="H91">
+        <v>0.96125857444913632</v>
+      </c>
+      <c r="I91">
+        <v>0.95754450231324739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>0.95612668743509865</v>
+      </c>
+      <c r="D92">
+        <v>0.95602560179554519</v>
+      </c>
+      <c r="E92">
+        <v>0.95612668743509865</v>
+      </c>
+      <c r="F92">
+        <v>0.95881356838263165</v>
+      </c>
+      <c r="G92">
+        <v>0.95333304656119566</v>
+      </c>
+      <c r="H92">
+        <v>0.95892385442419847</v>
+      </c>
+      <c r="I92">
+        <v>0.95612845049269712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93">
+        <v>0.95573727933541019</v>
+      </c>
+      <c r="D93">
+        <v>0.95556700483094836</v>
+      </c>
+      <c r="E93">
+        <v>0.95573727933541019</v>
+      </c>
+      <c r="F93">
+        <v>0.96022794719128024</v>
+      </c>
+      <c r="G93">
+        <v>0.95106424413147361</v>
+      </c>
+      <c r="H93">
+        <v>0.96052168067001453</v>
+      </c>
+      <c r="I93">
+        <v>0.95579296240074418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94">
+        <v>0.95560747663551404</v>
+      </c>
+      <c r="D94">
+        <v>0.95553571778981949</v>
+      </c>
+      <c r="E94">
+        <v>0.95560747663551404</v>
+      </c>
+      <c r="F94">
+        <v>0.95861593687820001</v>
+      </c>
+      <c r="G94">
+        <v>0.95258360504176354</v>
+      </c>
+      <c r="H94">
+        <v>0.95860589560587939</v>
+      </c>
+      <c r="I94">
+        <v>0.95559475032382124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>0.95521806853582547</v>
+      </c>
+      <c r="D95">
+        <v>0.95501615531973749</v>
+      </c>
+      <c r="E95">
+        <v>0.95521806853582547</v>
+      </c>
+      <c r="F95">
+        <v>0.95971398832060895</v>
+      </c>
+      <c r="G95">
+        <v>0.95049545170681593</v>
+      </c>
+      <c r="H95">
+        <v>0.95998006364674515</v>
+      </c>
+      <c r="I95">
+        <v>0.95523775767678054</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>0.95443925233644855</v>
+      </c>
+      <c r="D96">
+        <v>0.95416860983201834</v>
+      </c>
+      <c r="E96">
+        <v>0.95443925233644855</v>
+      </c>
+      <c r="F96">
+        <v>0.96115393197991983</v>
+      </c>
+      <c r="G96">
+        <v>0.94739946919610762</v>
+      </c>
+      <c r="H96">
+        <v>0.96145181646943412</v>
+      </c>
+      <c r="I96">
+        <v>0.95442564283277087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <v>0.95392004153686383</v>
+      </c>
+      <c r="D97">
+        <v>0.95338410275897334</v>
+      </c>
+      <c r="E97">
+        <v>0.95392004153686383</v>
+      </c>
+      <c r="F97">
+        <v>0.96475625606527948</v>
+      </c>
+      <c r="G97">
+        <v>0.94241089138811596</v>
+      </c>
+      <c r="H97">
+        <v>0.96540694070969602</v>
+      </c>
+      <c r="I97">
+        <v>0.95390891604890593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98">
+        <v>0.9528816199376946</v>
+      </c>
+      <c r="D98">
+        <v>0.95268417994427479</v>
+      </c>
+      <c r="E98">
+        <v>0.9528816199376946</v>
+      </c>
+      <c r="F98">
+        <v>0.95689203688436331</v>
+      </c>
+      <c r="G98">
+        <v>0.94861212356204683</v>
+      </c>
+      <c r="H98">
+        <v>0.95706335082643657</v>
+      </c>
+      <c r="I98">
+        <v>0.9528377371942417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>0.8851246105919004</v>
+      </c>
+      <c r="D99">
+        <v>0.88269971887899201</v>
+      </c>
+      <c r="E99">
+        <v>0.8851246105919004</v>
+      </c>
+      <c r="F99">
+        <v>0.90069013101279471</v>
+      </c>
+      <c r="G99">
+        <v>0.86559049738922689</v>
+      </c>
+      <c r="H99">
+        <v>0.90481002329351468</v>
+      </c>
+      <c r="I99">
+        <v>0.88520026034137078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100">
+        <v>0.87928348909657317</v>
+      </c>
+      <c r="D100">
+        <v>0.87478403390491799</v>
+      </c>
+      <c r="E100">
+        <v>0.87928348909657317</v>
+      </c>
+      <c r="F100">
+        <v>0.90733312029746571</v>
+      </c>
+      <c r="G100">
+        <v>0.84475957007858149</v>
+      </c>
+      <c r="H100">
+        <v>0.91382440191341185</v>
+      </c>
+      <c r="I100">
+        <v>0.87929198599599667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101">
+        <v>0.86902907580477684</v>
+      </c>
+      <c r="D101">
+        <v>0.87153795586935767</v>
+      </c>
+      <c r="E101">
+        <v>0.86902907580477684</v>
+      </c>
+      <c r="F101">
+        <v>0.85454705139853604</v>
+      </c>
+      <c r="G101">
+        <v>0.88943957870168178</v>
+      </c>
+      <c r="H101">
+        <v>0.84855238693988999</v>
+      </c>
+      <c r="I101">
+        <v>0.86899598282078594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>0.8677310488058152</v>
+      </c>
+      <c r="D102">
+        <v>0.86888500479983044</v>
+      </c>
+      <c r="E102">
+        <v>0.8677310488058152</v>
+      </c>
+      <c r="F102">
+        <v>0.86040259537381736</v>
+      </c>
+      <c r="G102">
+        <v>0.87780423511157735</v>
+      </c>
+      <c r="H102">
+        <v>0.8578326463817697</v>
+      </c>
+      <c r="I102">
+        <v>0.86781844074667347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103">
+        <v>0.85163551401869153</v>
+      </c>
+      <c r="D103">
+        <v>0.85682593868838841</v>
+      </c>
+      <c r="E103">
+        <v>0.85163551401869153</v>
+      </c>
+      <c r="F103">
+        <v>0.82719171332214558</v>
+      </c>
+      <c r="G103">
+        <v>0.88889308375108989</v>
+      </c>
+      <c r="H103">
+        <v>0.8143380200835395</v>
+      </c>
+      <c r="I103">
+        <v>0.85161555191731464</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104">
+        <v>0.8295690550363447</v>
+      </c>
+      <c r="D104">
+        <v>0.82964065121636221</v>
+      </c>
+      <c r="E104">
+        <v>0.8295690550363447</v>
+      </c>
+      <c r="F104">
+        <v>0.82860320590096836</v>
+      </c>
+      <c r="G104">
+        <v>0.83107242658487346</v>
+      </c>
+      <c r="H104">
+        <v>0.82809865069709432</v>
+      </c>
+      <c r="I104">
+        <v>0.82958553864098394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>0.82866043613707163</v>
+      </c>
+      <c r="D105">
+        <v>0.80866329119753522</v>
+      </c>
+      <c r="E105">
+        <v>0.82866043613707163</v>
+      </c>
+      <c r="F105">
+        <v>0.91477387654540776</v>
+      </c>
+      <c r="G105">
+        <v>0.72497614610641481</v>
+      </c>
+      <c r="H105">
+        <v>0.93244262406920875</v>
+      </c>
+      <c r="I105">
+        <v>0.82870938508781178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>0.82268951194184847</v>
+      </c>
+      <c r="D106">
+        <v>0.81670971826498107</v>
+      </c>
+      <c r="E106">
+        <v>0.82268951194184847</v>
+      </c>
+      <c r="F106">
+        <v>0.84406590918729907</v>
+      </c>
+      <c r="G106">
+        <v>0.79159161368164532</v>
+      </c>
+      <c r="H106">
+        <v>0.8539387986576138</v>
+      </c>
+      <c r="I106">
+        <v>0.82276520616962945</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107">
+        <v>0.78920041536863972</v>
+      </c>
+      <c r="D107">
+        <v>0.78572198748416344</v>
+      </c>
+      <c r="E107">
+        <v>0.78920041536863972</v>
+      </c>
+      <c r="F107">
+        <v>0.79806768381003379</v>
+      </c>
+      <c r="G107">
+        <v>0.7739438591868002</v>
+      </c>
+      <c r="H107">
+        <v>0.80410803333979441</v>
+      </c>
+      <c r="I107">
+        <v>0.78902594626329725</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110">
+        <v>0.49701453790238831</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0.49701453790238831</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0.99396890759235679</v>
+      </c>
+      <c r="I110">
+        <v>0.49698445379617839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111">
+        <v>0.3485202492211838</v>
+      </c>
+      <c r="D111">
+        <v>0.49353110494416758</v>
+      </c>
+      <c r="E111">
+        <v>0.3485202492211838</v>
+      </c>
+      <c r="F111">
+        <v>0.40372553979199238</v>
+      </c>
+      <c r="G111">
+        <v>0.63523128961438213</v>
+      </c>
+      <c r="H111">
+        <v>6.1473397759676793E-2</v>
+      </c>
+      <c r="I111">
+        <v>0.3483523436870295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>0.93782450674974027</v>
+      </c>
+      <c r="D112">
+        <v>0.93758176773376034</v>
+      </c>
+      <c r="E112">
+        <v>0.93782450674974027</v>
+      </c>
+      <c r="F112">
+        <v>0.94165945408544138</v>
+      </c>
+      <c r="G112">
+        <v>0.93366314497438052</v>
+      </c>
+      <c r="H112">
+        <v>0.94209920731192642</v>
+      </c>
+      <c r="I112">
+        <v>0.93788117614315358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>0.93704569055036335</v>
+      </c>
+      <c r="D113">
+        <v>0.93688112142606206</v>
+      </c>
+      <c r="E113">
+        <v>0.93704569055036335</v>
+      </c>
+      <c r="F113">
+        <v>0.93994695562612751</v>
+      </c>
+      <c r="G113">
+        <v>0.93394953675655379</v>
+      </c>
+      <c r="H113">
+        <v>0.94026363772934929</v>
+      </c>
+      <c r="I113">
+        <v>0.93710658724295148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>0.93587746625129797</v>
+      </c>
+      <c r="D114">
+        <v>0.93570088988002198</v>
+      </c>
+      <c r="E114">
+        <v>0.93587746625129797</v>
+      </c>
+      <c r="F114">
+        <v>0.93863201088962966</v>
+      </c>
+      <c r="G114">
+        <v>0.93291543414516476</v>
+      </c>
+      <c r="H114">
+        <v>0.93897421412943249</v>
+      </c>
+      <c r="I114">
+        <v>0.93594482413729874</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>0.93393042575285568</v>
+      </c>
+      <c r="D115">
+        <v>0.93366757570185643</v>
+      </c>
+      <c r="E115">
+        <v>0.93393042575285568</v>
+      </c>
+      <c r="F115">
+        <v>0.93748479119537376</v>
+      </c>
+      <c r="G115">
+        <v>0.9300191018345445</v>
+      </c>
+      <c r="H115">
+        <v>0.93794095751402895</v>
+      </c>
+      <c r="I115">
+        <v>0.93398002967428684</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>0.92808930425752856</v>
+      </c>
+      <c r="D116">
+        <v>0.92752249790293151</v>
+      </c>
+      <c r="E116">
+        <v>0.92808930425752856</v>
+      </c>
+      <c r="F116">
+        <v>0.93411375523035323</v>
+      </c>
+      <c r="G116">
+        <v>0.92117223539669391</v>
+      </c>
+      <c r="H116">
+        <v>0.9350973078525151</v>
+      </c>
+      <c r="I116">
+        <v>0.92813477162460445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117">
+        <v>0.85877466251298018</v>
+      </c>
+      <c r="D117">
+        <v>0.86643272571543162</v>
+      </c>
+      <c r="E117">
+        <v>0.85877466251298018</v>
+      </c>
+      <c r="F117">
+        <v>0.82125561827624716</v>
+      </c>
+      <c r="G117">
+        <v>0.91741338577508325</v>
+      </c>
+      <c r="H117">
+        <v>0.80061622423052814</v>
+      </c>
+      <c r="I117">
+        <v>0.85901480500280591</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>0.85812564901349953</v>
+      </c>
+      <c r="D118">
+        <v>0.8659924708360629</v>
+      </c>
+      <c r="E118">
+        <v>0.85812564901349953</v>
+      </c>
+      <c r="F118">
+        <v>0.81981074321874481</v>
+      </c>
+      <c r="G118">
+        <v>0.91818571810568739</v>
+      </c>
+      <c r="H118">
+        <v>0.79858798603847903</v>
+      </c>
+      <c r="I118">
+        <v>0.8583868520720831</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>0.85643821391484931</v>
+      </c>
+      <c r="D119">
+        <v>0.86473884645397736</v>
+      </c>
+      <c r="E119">
+        <v>0.85643821391484931</v>
+      </c>
+      <c r="F119">
+        <v>0.81671523917504507</v>
+      </c>
+      <c r="G119">
+        <v>0.91918605987024682</v>
+      </c>
+      <c r="H119">
+        <v>0.79410109438240761</v>
+      </c>
+      <c r="I119">
+        <v>0.85664357712632733</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>0.85280373831775713</v>
+      </c>
+      <c r="D120">
+        <v>0.86192999340521859</v>
+      </c>
+      <c r="E120">
+        <v>0.85280373831775713</v>
+      </c>
+      <c r="F120">
+        <v>0.81101677002333261</v>
+      </c>
+      <c r="G120">
+        <v>0.92025695678664854</v>
+      </c>
+      <c r="H120">
+        <v>0.78591104254079125</v>
+      </c>
+      <c r="I120">
+        <v>0.85308399966372006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>0.83631879543094501</v>
+      </c>
+      <c r="D121">
+        <v>0.84898145156590332</v>
+      </c>
+      <c r="E121">
+        <v>0.83631879543094501</v>
+      </c>
+      <c r="F121">
+        <v>0.78762947642514591</v>
+      </c>
+      <c r="G121">
+        <v>0.92128454024164885</v>
+      </c>
+      <c r="H121">
+        <v>0.75187947793212051</v>
+      </c>
+      <c r="I121">
+        <v>0.83658200908688463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>0.83398234683281414</v>
+      </c>
+      <c r="D122">
+        <v>0.82942801452319292</v>
+      </c>
+      <c r="E122">
+        <v>0.83398234683281414</v>
+      </c>
+      <c r="F122">
+        <v>0.85235671137167979</v>
+      </c>
+      <c r="G122">
+        <v>0.80803619434112894</v>
+      </c>
+      <c r="H122">
+        <v>0.86002024090392315</v>
+      </c>
+      <c r="I122">
+        <v>0.83402821762252588</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>0.83385254413291787</v>
+      </c>
+      <c r="D123">
+        <v>0.82931683776604515</v>
+      </c>
+      <c r="E123">
+        <v>0.83385254413291787</v>
+      </c>
+      <c r="F123">
+        <v>0.8521366369277964</v>
+      </c>
+      <c r="G123">
+        <v>0.80803619434112894</v>
+      </c>
+      <c r="H123">
+        <v>0.85976842302851908</v>
+      </c>
+      <c r="I123">
+        <v>0.83390230868482396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>0.83385254413291798</v>
+      </c>
+      <c r="D124">
+        <v>0.82931987198622004</v>
+      </c>
+      <c r="E124">
+        <v>0.83385254413291798</v>
+      </c>
+      <c r="F124">
+        <v>0.85212411745501804</v>
+      </c>
+      <c r="G124">
+        <v>0.80803619434112894</v>
+      </c>
+      <c r="H124">
+        <v>0.85975818639658563</v>
+      </c>
+      <c r="I124">
+        <v>0.83389719036885712</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125">
+        <v>0.83372274143302183</v>
+      </c>
+      <c r="D125">
+        <v>0.82921195953975135</v>
+      </c>
+      <c r="E125">
+        <v>0.83372274143302183</v>
+      </c>
+      <c r="F125">
+        <v>0.85189254818116089</v>
+      </c>
+      <c r="G125">
+        <v>0.80803619434112894</v>
+      </c>
+      <c r="H125">
+        <v>0.85949613188924812</v>
+      </c>
+      <c r="I125">
+        <v>0.83376616311518836</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>0.83307372793354095</v>
+      </c>
+      <c r="D126">
+        <v>0.8284096244483603</v>
+      </c>
+      <c r="E126">
+        <v>0.83307372793354095</v>
+      </c>
+      <c r="F126">
+        <v>0.851718933848163</v>
+      </c>
+      <c r="G126">
+        <v>0.80674638121480613</v>
+      </c>
+      <c r="H126">
+        <v>0.85952026379834967</v>
+      </c>
+      <c r="I126">
+        <v>0.83313332250657779</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="D127">
+        <v>0.75987666814751986</v>
+      </c>
+      <c r="E127">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="F127">
+        <v>0.77275331647940304</v>
+      </c>
+      <c r="G127">
+        <v>0.74786681121203247</v>
+      </c>
+      <c r="H127">
+        <v>0.77994414324372929</v>
+      </c>
+      <c r="I127">
+        <v>0.76390547722788082</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>0.75610072689511953</v>
+      </c>
+      <c r="D128">
+        <v>0.75323855974245801</v>
+      </c>
+      <c r="E128">
+        <v>0.75610072689511953</v>
+      </c>
+      <c r="F128">
+        <v>0.76186403149661108</v>
+      </c>
+      <c r="G128">
+        <v>0.74529042548830848</v>
+      </c>
+      <c r="H128">
+        <v>0.76714695286823498</v>
+      </c>
+      <c r="I128">
+        <v>0.75621868917827162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>0.75350467289719625</v>
+      </c>
+      <c r="D129">
+        <v>0.75137379667509818</v>
+      </c>
+      <c r="E129">
+        <v>0.75350467289719625</v>
+      </c>
+      <c r="F129">
+        <v>0.75780876014489329</v>
+      </c>
+      <c r="G129">
+        <v>0.74561066043920654</v>
+      </c>
+      <c r="H129">
+        <v>0.76167738445143818</v>
+      </c>
+      <c r="I129">
+        <v>0.75364402244532225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130">
+        <v>0.75155763239875384</v>
+      </c>
+      <c r="D130">
+        <v>0.74989923700854655</v>
+      </c>
+      <c r="E130">
+        <v>0.75155763239875384</v>
+      </c>
+      <c r="F130">
+        <v>0.75485632744333842</v>
+      </c>
+      <c r="G130">
+        <v>0.74561250922801381</v>
+      </c>
+      <c r="H130">
+        <v>0.75779757662992908</v>
+      </c>
+      <c r="I130">
+        <v>0.75170504292897145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131">
+        <v>0.75025960539979231</v>
+      </c>
+      <c r="D131">
+        <v>0.7488690258062124</v>
+      </c>
+      <c r="E131">
+        <v>0.75025960539979231</v>
+      </c>
+      <c r="F131">
+        <v>0.75304472590673532</v>
+      </c>
+      <c r="G131">
+        <v>0.74535895953227338</v>
+      </c>
+      <c r="H131">
+        <v>0.75543684089022012</v>
+      </c>
+      <c r="I131">
+        <v>0.75039790021124686</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137">
+        <v>0.95833358599895568</v>
+      </c>
+      <c r="D137">
+        <v>0.95817216911248182</v>
+      </c>
+      <c r="E137">
+        <v>0.95833358599895568</v>
+      </c>
+      <c r="F137">
+        <v>0.96034048414242823</v>
+      </c>
+      <c r="G137">
+        <v>0.95607142244353693</v>
+      </c>
+      <c r="H137">
+        <v>0.96054197289033616</v>
+      </c>
+      <c r="I137">
+        <v>0.95830669766693632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138">
+        <v>0.95742365287112352</v>
+      </c>
+      <c r="D138">
+        <v>0.9572274604084392</v>
+      </c>
+      <c r="E138">
+        <v>0.95742365287112352</v>
+      </c>
+      <c r="F138">
+        <v>0.96107383632207388</v>
+      </c>
+      <c r="G138">
+        <v>0.95352880222669323</v>
+      </c>
+      <c r="H138">
+        <v>0.96131205130954045</v>
+      </c>
+      <c r="I138">
+        <v>0.95742042676811678</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139">
+        <v>0.95690551990162864</v>
+      </c>
+      <c r="D139">
+        <v>0.95657895157656192</v>
+      </c>
+      <c r="E139">
+        <v>0.95690551990162864</v>
+      </c>
+      <c r="F139">
+        <v>0.96222590157489163</v>
+      </c>
+      <c r="G139">
+        <v>0.95112313853620589</v>
+      </c>
+      <c r="H139">
+        <v>0.9626287239565201</v>
+      </c>
+      <c r="I139">
+        <v>0.95687593124636305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140">
+        <v>0.95664493742314749</v>
+      </c>
+      <c r="D140">
+        <v>0.95627893952970611</v>
+      </c>
+      <c r="E140">
+        <v>0.95664493742314749</v>
+      </c>
+      <c r="F140">
+        <v>0.96288789388879115</v>
+      </c>
+      <c r="G140">
+        <v>0.94984707226469278</v>
+      </c>
+      <c r="H140">
+        <v>0.96340277217640846</v>
+      </c>
+      <c r="I140">
+        <v>0.95662492222055062</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141">
+        <v>0.95651574106827009</v>
+      </c>
+      <c r="D141">
+        <v>0.95634823807639824</v>
+      </c>
+      <c r="E141">
+        <v>0.95651574106827009</v>
+      </c>
+      <c r="F141">
+        <v>0.95957602222429406</v>
+      </c>
+      <c r="G141">
+        <v>0.95322969767616361</v>
+      </c>
+      <c r="H141">
+        <v>0.9597377386233491</v>
+      </c>
+      <c r="I141">
+        <v>0.95648371814975641</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142">
+        <v>0.95651456196203277</v>
+      </c>
+      <c r="D142">
+        <v>0.95622332646728392</v>
+      </c>
+      <c r="E142">
+        <v>0.95651456196203277</v>
+      </c>
+      <c r="F142">
+        <v>0.96153300317693779</v>
+      </c>
+      <c r="G142">
+        <v>0.95110571129539778</v>
+      </c>
+      <c r="H142">
+        <v>0.96178727208599724</v>
+      </c>
+      <c r="I142">
+        <v>0.95644649169069762</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143">
+        <v>0.95638536560715559</v>
+      </c>
+      <c r="D143">
+        <v>0.95616261886586229</v>
+      </c>
+      <c r="E143">
+        <v>0.95638536560715559</v>
+      </c>
+      <c r="F143">
+        <v>0.96025081122195088</v>
+      </c>
+      <c r="G143">
+        <v>0.95220553941056596</v>
+      </c>
+      <c r="H143">
+        <v>0.96052473062516786</v>
+      </c>
+      <c r="I143">
+        <v>0.95636513501786702</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144">
+        <v>0.95210369397139838</v>
+      </c>
+      <c r="D144">
+        <v>0.95163671304536179</v>
+      </c>
+      <c r="E144">
+        <v>0.95210369397139838</v>
+      </c>
+      <c r="F144">
+        <v>0.9594612566646864</v>
+      </c>
+      <c r="G144">
+        <v>0.94413924356584822</v>
+      </c>
+      <c r="H144">
+        <v>0.96003226192203994</v>
+      </c>
+      <c r="I144">
+        <v>0.95208575274394414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145">
+        <v>0.88512304815806753</v>
+      </c>
+      <c r="D145">
+        <v>0.88277551039778746</v>
+      </c>
+      <c r="E145">
+        <v>0.88512304815806753</v>
+      </c>
+      <c r="F145">
+        <v>0.90079977812653134</v>
+      </c>
+      <c r="G145">
+        <v>0.86555442885337452</v>
+      </c>
+      <c r="H145">
+        <v>0.90474764206430769</v>
+      </c>
+      <c r="I145">
+        <v>0.88515103545884111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>0.87928074519514221</v>
+      </c>
+      <c r="D146">
+        <v>0.87486203813784924</v>
+      </c>
+      <c r="E146">
+        <v>0.87928074519514221</v>
+      </c>
+      <c r="F146">
+        <v>0.90743748838519056</v>
+      </c>
+      <c r="G146">
+        <v>0.84479710824766463</v>
+      </c>
+      <c r="H146">
+        <v>0.91389494997474474</v>
+      </c>
+      <c r="I146">
+        <v>0.87934602911120474</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147">
+        <v>0.86902740579783377</v>
+      </c>
+      <c r="D147">
+        <v>0.87164315370613432</v>
+      </c>
+      <c r="E147">
+        <v>0.86902740579783377</v>
+      </c>
+      <c r="F147">
+        <v>0.8546667514676628</v>
+      </c>
+      <c r="G147">
+        <v>0.88943985196193087</v>
+      </c>
+      <c r="H147">
+        <v>0.84858227941413911</v>
+      </c>
+      <c r="I147">
+        <v>0.86901106568803499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148">
+        <v>0.86772937827412533</v>
+      </c>
+      <c r="D148">
+        <v>0.86904210106841562</v>
+      </c>
+      <c r="E148">
+        <v>0.86772937827412533</v>
+      </c>
+      <c r="F148">
+        <v>0.86062827619373117</v>
+      </c>
+      <c r="G148">
+        <v>0.87782513651947025</v>
+      </c>
+      <c r="H148">
+        <v>0.8577466866285075</v>
+      </c>
+      <c r="I148">
+        <v>0.86778591157398888</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149">
+        <v>0.851634915020129</v>
+      </c>
+      <c r="D149">
+        <v>0.85697795567265955</v>
+      </c>
+      <c r="E149">
+        <v>0.851634915020129</v>
+      </c>
+      <c r="F149">
+        <v>0.8273917773858116</v>
+      </c>
+      <c r="G149">
+        <v>0.88894339593969884</v>
+      </c>
+      <c r="H149">
+        <v>0.81431930485198145</v>
+      </c>
+      <c r="I149">
+        <v>0.85163135039584004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150">
+        <v>0.82956844711708533</v>
+      </c>
+      <c r="D150">
+        <v>0.82969953516317718</v>
+      </c>
+      <c r="E150">
+        <v>0.82956844711708533</v>
+      </c>
+      <c r="F150">
+        <v>0.82860221731625572</v>
+      </c>
+      <c r="G150">
+        <v>0.83110599638122318</v>
+      </c>
+      <c r="H150">
+        <v>0.82824269925345395</v>
+      </c>
+      <c r="I150">
+        <v>0.82967434781733862</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151">
+        <v>0.82865851398925339</v>
+      </c>
+      <c r="D151">
+        <v>0.80876698314963336</v>
+      </c>
+      <c r="E151">
+        <v>0.82865851398925339</v>
+      </c>
+      <c r="F151">
+        <v>0.914894707931872</v>
+      </c>
+      <c r="G151">
+        <v>0.72495323849260696</v>
+      </c>
+      <c r="H151">
+        <v>0.93253431726051372</v>
+      </c>
+      <c r="I151">
+        <v>0.82874377787656039</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>0.82242828507419952</v>
+      </c>
+      <c r="D152">
+        <v>0.81660841489425273</v>
+      </c>
+      <c r="E152">
+        <v>0.82242828507419952</v>
+      </c>
+      <c r="F152">
+        <v>0.8439148413337888</v>
+      </c>
+      <c r="G152">
+        <v>0.7914336833102833</v>
+      </c>
+      <c r="H152">
+        <v>0.85366378250743491</v>
+      </c>
+      <c r="I152">
+        <v>0.82254873290885899</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153">
+        <v>0.78919803931477084</v>
+      </c>
+      <c r="D153">
+        <v>0.78583175972266406</v>
+      </c>
+      <c r="E153">
+        <v>0.78919803931477084</v>
+      </c>
+      <c r="F153">
+        <v>0.79845176726689948</v>
+      </c>
+      <c r="G153">
+        <v>0.77404627107144053</v>
+      </c>
+      <c r="H153">
+        <v>0.80403570990137541</v>
+      </c>
+      <c r="I153">
+        <v>0.78904099048640808</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156">
+        <v>0.49701180790674959</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0.49701180790674959</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0.99405259666513501</v>
+      </c>
+      <c r="I156">
+        <v>0.49702629833256751</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157">
+        <v>0.34852106389071369</v>
+      </c>
+      <c r="D157">
+        <v>0.49374143344196841</v>
+      </c>
+      <c r="E157">
+        <v>0.34852106389071369</v>
+      </c>
+      <c r="F157">
+        <v>0.40382043209243568</v>
+      </c>
+      <c r="G157">
+        <v>0.63558613704321598</v>
+      </c>
+      <c r="H157">
+        <v>6.1622108001838739E-2</v>
+      </c>
+      <c r="I157">
+        <v>0.34860412252252732</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158">
+        <v>0.93756480873212378</v>
+      </c>
+      <c r="D158">
+        <v>0.93727702323564976</v>
+      </c>
+      <c r="E158">
+        <v>0.93756480873212378</v>
+      </c>
+      <c r="F158">
+        <v>0.94117371109852854</v>
+      </c>
+      <c r="G158">
+        <v>0.93362502740575404</v>
+      </c>
+      <c r="H158">
+        <v>0.94167589814436425</v>
+      </c>
+      <c r="I158">
+        <v>0.93765046277505915</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159">
+        <v>0.93678626172789592</v>
+      </c>
+      <c r="D159">
+        <v>0.93652835762966957</v>
+      </c>
+      <c r="E159">
+        <v>0.93678626172789592</v>
+      </c>
+      <c r="F159">
+        <v>0.93992510120054473</v>
+      </c>
+      <c r="G159">
+        <v>0.93336396162447988</v>
+      </c>
+      <c r="H159">
+        <v>0.94038747554456703</v>
+      </c>
+      <c r="I159">
+        <v>0.93687571858452345</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>0.93613741640978998</v>
+      </c>
+      <c r="D160">
+        <v>0.93590477110635073</v>
+      </c>
+      <c r="E160">
+        <v>0.93613741640978998</v>
+      </c>
+      <c r="F160">
+        <v>0.9386867694313018</v>
+      </c>
+      <c r="G160">
+        <v>0.93337973094498561</v>
+      </c>
+      <c r="H160">
+        <v>0.93909789019566658</v>
+      </c>
+      <c r="I160">
+        <v>0.9362388105703261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>0.93393130863947993</v>
+      </c>
+      <c r="D161">
+        <v>0.93358971225101972</v>
+      </c>
+      <c r="E161">
+        <v>0.93393130863947993</v>
+      </c>
+      <c r="F161">
+        <v>0.93773974380637282</v>
+      </c>
+      <c r="G161">
+        <v>0.92973680395161584</v>
+      </c>
+      <c r="H161">
+        <v>0.93833450082972392</v>
+      </c>
+      <c r="I161">
+        <v>0.93403565239066977</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>0.92860831775228658</v>
+      </c>
+      <c r="D162">
+        <v>0.92800656919109004</v>
+      </c>
+      <c r="E162">
+        <v>0.92860831775228658</v>
+      </c>
+      <c r="F162">
+        <v>0.93494278969303113</v>
+      </c>
+      <c r="G162">
+        <v>0.92143891620650265</v>
+      </c>
+      <c r="H162">
+        <v>0.93594464984058834</v>
+      </c>
+      <c r="I162">
+        <v>0.9286917830235456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163">
+        <v>0.85890191520541703</v>
+      </c>
+      <c r="D163">
+        <v>0.86648976331065464</v>
+      </c>
+      <c r="E163">
+        <v>0.85890191520541703</v>
+      </c>
+      <c r="F163">
+        <v>0.82239766781989432</v>
+      </c>
+      <c r="G163">
+        <v>0.9158143647234992</v>
+      </c>
+      <c r="H163">
+        <v>0.80213058118582337</v>
+      </c>
+      <c r="I163">
+        <v>0.85897247295466106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164">
+        <v>0.85799383495881543</v>
+      </c>
+      <c r="D164">
+        <v>0.86581363282289803</v>
+      </c>
+      <c r="E164">
+        <v>0.85799383495881543</v>
+      </c>
+      <c r="F164">
+        <v>0.82079042473014785</v>
+      </c>
+      <c r="G164">
+        <v>0.9163346946851233</v>
+      </c>
+      <c r="H164">
+        <v>0.79984049271493796</v>
+      </c>
+      <c r="I164">
+        <v>0.85808759370003052</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165">
+        <v>0.85630602860174854</v>
+      </c>
+      <c r="D165">
+        <v>0.86462713706861805</v>
+      </c>
+      <c r="E165">
+        <v>0.85630602860174854</v>
+      </c>
+      <c r="F165">
+        <v>0.81759637058743606</v>
+      </c>
+      <c r="G165">
+        <v>0.91765731068936807</v>
+      </c>
+      <c r="H165">
+        <v>0.79514021540948665</v>
+      </c>
+      <c r="I165">
+        <v>0.8563987630494273</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166">
+        <v>0.85409941550019364</v>
+      </c>
+      <c r="D166">
+        <v>0.86317205258024909</v>
+      </c>
+      <c r="E166">
+        <v>0.85409941550019364</v>
+      </c>
+      <c r="F166">
+        <v>0.8130115792941629</v>
+      </c>
+      <c r="G166">
+        <v>0.9202267815857692</v>
+      </c>
+      <c r="H166">
+        <v>0.78816311982578779</v>
+      </c>
+      <c r="I166">
+        <v>0.85419495070577867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>0.83826452406218943</v>
+      </c>
+      <c r="D167">
+        <v>0.850723504234422</v>
+      </c>
+      <c r="E167">
+        <v>0.83826452406218943</v>
+      </c>
+      <c r="F167">
+        <v>0.79042587079853543</v>
+      </c>
+      <c r="G167">
+        <v>0.92123614132092002</v>
+      </c>
+      <c r="H167">
+        <v>0.75529165231980055</v>
+      </c>
+      <c r="I167">
+        <v>0.83826389682036029</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168">
+        <v>0.83449997473343773</v>
+      </c>
+      <c r="D168">
+        <v>0.83009442774020969</v>
+      </c>
+      <c r="E168">
+        <v>0.83449997473343773</v>
+      </c>
+      <c r="F168">
+        <v>0.85255014442318777</v>
+      </c>
+      <c r="G168">
+        <v>0.80904323226572727</v>
+      </c>
+      <c r="H168">
+        <v>0.86007779080367786</v>
+      </c>
+      <c r="I168">
+        <v>0.83456051153470256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169">
+        <v>0.8341107012313238</v>
+      </c>
+      <c r="D169">
+        <v>0.82962455029833637</v>
+      </c>
+      <c r="E169">
+        <v>0.8341107012313238</v>
+      </c>
+      <c r="F169">
+        <v>0.85241305958191005</v>
+      </c>
+      <c r="G169">
+        <v>0.80826451260284782</v>
+      </c>
+      <c r="H169">
+        <v>0.86008565692775085</v>
+      </c>
+      <c r="I169">
+        <v>0.83417508476529922</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>0.8341107012313238</v>
+      </c>
+      <c r="D170">
+        <v>0.8297159220990673</v>
+      </c>
+      <c r="E170">
+        <v>0.8341107012313238</v>
+      </c>
+      <c r="F170">
+        <v>0.85202508972093161</v>
+      </c>
+      <c r="G170">
+        <v>0.80877868200117697</v>
+      </c>
+      <c r="H170">
+        <v>0.85956799757840785</v>
+      </c>
+      <c r="I170">
+        <v>0.83417333978979236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>0.8341107012313238</v>
+      </c>
+      <c r="D171">
+        <v>0.82966821094958987</v>
+      </c>
+      <c r="E171">
+        <v>0.8341107012313238</v>
+      </c>
+      <c r="F171">
+        <v>0.85222186064149474</v>
+      </c>
+      <c r="G171">
+        <v>0.80851961464366406</v>
+      </c>
+      <c r="H171">
+        <v>0.8598218046850068</v>
+      </c>
+      <c r="I171">
+        <v>0.83417070966433537</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <v>0.8335913891555915</v>
+      </c>
+      <c r="D172">
+        <v>0.82923368777356665</v>
+      </c>
+      <c r="E172">
+        <v>0.8335913891555915</v>
+      </c>
+      <c r="F172">
+        <v>0.85132205895864066</v>
+      </c>
+      <c r="G172">
+        <v>0.80854911944210683</v>
+      </c>
+      <c r="H172">
+        <v>0.85879444207504108</v>
+      </c>
+      <c r="I172">
+        <v>0.83367178075857384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>0.767394343658935</v>
+      </c>
+      <c r="D173">
+        <v>0.76314429720326404</v>
+      </c>
+      <c r="E173">
+        <v>0.767394343658935</v>
+      </c>
+      <c r="F173">
+        <v>0.77745451232332174</v>
+      </c>
+      <c r="G173">
+        <v>0.74983761596848597</v>
+      </c>
+      <c r="H173">
+        <v>0.78526011063556111</v>
+      </c>
+      <c r="I173">
+        <v>0.76754886330202354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <v>0.75701079724426024</v>
+      </c>
+      <c r="D174">
+        <v>0.75429593884208856</v>
+      </c>
+      <c r="E174">
+        <v>0.75701079724426024</v>
+      </c>
+      <c r="F174">
+        <v>0.76302676482202203</v>
+      </c>
+      <c r="G174">
+        <v>0.7462064171301287</v>
+      </c>
+      <c r="H174">
+        <v>0.76806442331664315</v>
+      </c>
+      <c r="I174">
+        <v>0.75713542022338598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175">
+        <v>0.75493388582882748</v>
+      </c>
+      <c r="D175">
+        <v>0.75258405548398888</v>
+      </c>
+      <c r="E175">
+        <v>0.75493388582882748</v>
+      </c>
+      <c r="F175">
+        <v>0.76006338292444053</v>
+      </c>
+      <c r="G175">
+        <v>0.74569726754297339</v>
+      </c>
+      <c r="H175">
+        <v>0.76443578499819753</v>
+      </c>
+      <c r="I175">
+        <v>0.75506652627058557</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176">
+        <v>0.75324557414051574</v>
+      </c>
+      <c r="D176">
+        <v>0.75109561429801086</v>
+      </c>
+      <c r="E176">
+        <v>0.75324557414051574</v>
+      </c>
+      <c r="F176">
+        <v>0.75781989696235275</v>
+      </c>
+      <c r="G176">
+        <v>0.74492828088300012</v>
+      </c>
+      <c r="H176">
+        <v>0.7618884780250561</v>
+      </c>
+      <c r="I176">
+        <v>0.75340837945402794</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177">
+        <v>0.75324607947176037</v>
+      </c>
+      <c r="D177">
+        <v>0.75130949422964566</v>
+      </c>
+      <c r="E177">
+        <v>0.75324607947176037</v>
+      </c>
+      <c r="F177">
+        <v>0.75746391486373132</v>
+      </c>
+      <c r="G177">
+        <v>0.7456865121467402</v>
+      </c>
+      <c r="H177">
+        <v>0.7610737675565199</v>
+      </c>
+      <c r="I177">
+        <v>0.75338013985162999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>96</v>
+      </c>
+      <c r="C179">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>99</v>
+      </c>
+      <c r="C182">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0.49999713645628041</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>16</v>
+      </c>
+      <c r="B183" t="s">
+        <v>93</v>
+      </c>
+      <c r="C183">
+        <v>0.95742682516541433</v>
+      </c>
+      <c r="D183">
+        <v>0.95724759698107387</v>
+      </c>
+      <c r="E183">
+        <v>0.95742682516541433</v>
+      </c>
+      <c r="F183">
+        <v>0.96090359704105821</v>
+      </c>
+      <c r="G183">
+        <v>0.95386369116739811</v>
+      </c>
+      <c r="H183">
+        <v>0.96102599951793455</v>
+      </c>
+      <c r="I183">
+        <v>0.95744484534266627</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184">
+        <v>0.95742520768454364</v>
+      </c>
+      <c r="D184">
+        <v>0.95705926218303095</v>
+      </c>
+      <c r="E184">
+        <v>0.95742520768454364</v>
+      </c>
+      <c r="F184">
+        <v>0.96422443340344721</v>
+      </c>
+      <c r="G184">
+        <v>0.95018463403683928</v>
+      </c>
+      <c r="H184">
+        <v>0.96466482417007937</v>
+      </c>
+      <c r="I184">
+        <v>0.95742472910345966</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>16</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185">
+        <v>0.95729500047446092</v>
+      </c>
+      <c r="D185">
+        <v>0.95706785414568496</v>
+      </c>
+      <c r="E185">
+        <v>0.95729500047446092</v>
+      </c>
+      <c r="F185">
+        <v>0.96162435103792787</v>
+      </c>
+      <c r="G185">
+        <v>0.95282860163063754</v>
+      </c>
+      <c r="H185">
+        <v>0.96180760252360098</v>
+      </c>
+      <c r="I185">
+        <v>0.95731810207711954</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186">
+        <v>0.95690761380595379</v>
+      </c>
+      <c r="D186">
+        <v>0.95662477240244947</v>
+      </c>
+      <c r="E186">
+        <v>0.95690761380595379</v>
+      </c>
+      <c r="F186">
+        <v>0.96276107498578889</v>
+      </c>
+      <c r="G186">
+        <v>0.95081281932514439</v>
+      </c>
+      <c r="H186">
+        <v>0.96312949667320435</v>
+      </c>
+      <c r="I186">
+        <v>0.95697115799917443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>16</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187">
+        <v>0.95690599632508333</v>
+      </c>
+      <c r="D187">
+        <v>0.95667795194450733</v>
+      </c>
+      <c r="E187">
+        <v>0.95690599632508333</v>
+      </c>
+      <c r="F187">
+        <v>0.96084279916746507</v>
+      </c>
+      <c r="G187">
+        <v>0.95280266816796533</v>
+      </c>
+      <c r="H187">
+        <v>0.9610182847021046</v>
+      </c>
+      <c r="I187">
+        <v>0.95691047643503513</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>16</v>
+      </c>
+      <c r="B188" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188">
+        <v>0.95677794575616137</v>
+      </c>
+      <c r="D188">
+        <v>0.95657059691635227</v>
+      </c>
+      <c r="E188">
+        <v>0.95677794575616137</v>
+      </c>
+      <c r="F188">
+        <v>0.95971420619488679</v>
+      </c>
+      <c r="G188">
+        <v>0.95358848634577265</v>
+      </c>
+      <c r="H188">
+        <v>0.96008803581235491</v>
+      </c>
+      <c r="I188">
+        <v>0.956838261079064</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189">
+        <v>0.95327205596915121</v>
+      </c>
+      <c r="D189">
+        <v>0.95312975801442645</v>
+      </c>
+      <c r="E189">
+        <v>0.95327205596915121</v>
+      </c>
+      <c r="F189">
+        <v>0.95747769025554108</v>
+      </c>
+      <c r="G189">
+        <v>0.94900779619266629</v>
+      </c>
+      <c r="H189">
+        <v>0.95757930796959756</v>
+      </c>
+      <c r="I189">
+        <v>0.95329355208113198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>94</v>
+      </c>
+      <c r="C190">
+        <v>0.95275365335012618</v>
+      </c>
+      <c r="D190">
+        <v>0.95231668732067631</v>
+      </c>
+      <c r="E190">
+        <v>0.95275365335012618</v>
+      </c>
+      <c r="F190">
+        <v>0.96152451592782073</v>
+      </c>
+      <c r="G190">
+        <v>0.94359573733649338</v>
+      </c>
+      <c r="H190">
+        <v>0.96204736193417273</v>
+      </c>
+      <c r="I190">
+        <v>0.95282154963533316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191">
+        <v>0.88512246486831547</v>
+      </c>
+      <c r="D191">
+        <v>0.88254414908653611</v>
+      </c>
+      <c r="E191">
+        <v>0.88512246486831547</v>
+      </c>
+      <c r="F191">
+        <v>0.90058261989440869</v>
+      </c>
+      <c r="G191">
+        <v>0.86551078112529634</v>
+      </c>
+      <c r="H191">
+        <v>0.90483425229400039</v>
+      </c>
+      <c r="I191">
+        <v>0.88517251670964803</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>16</v>
+      </c>
+      <c r="B192" t="s">
+        <v>49</v>
+      </c>
+      <c r="C192">
+        <v>0.87927769774242803</v>
+      </c>
+      <c r="D192">
+        <v>0.87465851167685327</v>
+      </c>
+      <c r="E192">
+        <v>0.87927769774242803</v>
+      </c>
+      <c r="F192">
+        <v>0.90726202622522145</v>
+      </c>
+      <c r="G192">
+        <v>0.84469683711759946</v>
+      </c>
+      <c r="H192">
+        <v>0.91384147311267072</v>
+      </c>
+      <c r="I192">
+        <v>0.87926915511513504</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193">
+        <v>0.86902664314490041</v>
+      </c>
+      <c r="D193">
+        <v>0.8714074588410019</v>
+      </c>
+      <c r="E193">
+        <v>0.86902664314490041</v>
+      </c>
+      <c r="F193">
+        <v>0.85451335941654327</v>
+      </c>
+      <c r="G193">
+        <v>0.88935969042993235</v>
+      </c>
+      <c r="H193">
+        <v>0.848703568486041</v>
+      </c>
+      <c r="I193">
+        <v>0.86903162945798651</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194">
+        <v>0.86772861474624974</v>
+      </c>
+      <c r="D194">
+        <v>0.86875797513689912</v>
+      </c>
+      <c r="E194">
+        <v>0.86772861474624974</v>
+      </c>
+      <c r="F194">
+        <v>0.86036403870528899</v>
+      </c>
+      <c r="G194">
+        <v>0.8777141086998268</v>
+      </c>
+      <c r="H194">
+        <v>0.85795551181694585</v>
+      </c>
+      <c r="I194">
+        <v>0.86783481025838616</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>16</v>
+      </c>
+      <c r="B195" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195">
+        <v>0.85163494966399533</v>
+      </c>
+      <c r="D195">
+        <v>0.85668330077410293</v>
+      </c>
+      <c r="E195">
+        <v>0.85163494966399533</v>
+      </c>
+      <c r="F195">
+        <v>0.82725905860977023</v>
+      </c>
+      <c r="G195">
+        <v>0.88878288495640712</v>
+      </c>
+      <c r="H195">
+        <v>0.81466122039373978</v>
+      </c>
+      <c r="I195">
+        <v>0.85172205267507328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s">
+        <v>46</v>
+      </c>
+      <c r="C196">
+        <v>0.82956954520751192</v>
+      </c>
+      <c r="D196">
+        <v>0.82958334772786058</v>
+      </c>
+      <c r="E196">
+        <v>0.82956954520751192</v>
+      </c>
+      <c r="F196">
+        <v>0.82868000829591437</v>
+      </c>
+      <c r="G196">
+        <v>0.83109483146974594</v>
+      </c>
+      <c r="H196">
+        <v>0.82815207228691889</v>
+      </c>
+      <c r="I196">
+        <v>0.82962345187833242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>16</v>
+      </c>
+      <c r="B197" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197">
+        <v>0.8285300441680109</v>
+      </c>
+      <c r="D197">
+        <v>0.80814515509786189</v>
+      </c>
+      <c r="E197">
+        <v>0.8285300441680109</v>
+      </c>
+      <c r="F197">
+        <v>0.91439615196638702</v>
+      </c>
+      <c r="G197">
+        <v>0.72477786450017767</v>
+      </c>
+      <c r="H197">
+        <v>0.93219080016048428</v>
+      </c>
+      <c r="I197">
+        <v>0.82848433233033092</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>16</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>0.82203882385417648</v>
+      </c>
+      <c r="D198">
+        <v>0.81600916751471775</v>
+      </c>
+      <c r="E198">
+        <v>0.82203882385417648</v>
+      </c>
+      <c r="F198">
+        <v>0.84281812162281333</v>
+      </c>
+      <c r="G198">
+        <v>0.79156475389129832</v>
+      </c>
+      <c r="H198">
+        <v>0.85269448217032584</v>
+      </c>
+      <c r="I198">
+        <v>0.82212961803081197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>44</v>
+      </c>
+      <c r="C199">
+        <v>0.78920045763925428</v>
+      </c>
+      <c r="D199">
+        <v>0.78546382919976621</v>
+      </c>
+      <c r="E199">
+        <v>0.78920045763925428</v>
+      </c>
+      <c r="F199">
+        <v>0.79792539207230506</v>
+      </c>
+      <c r="G199">
+        <v>0.77370364104966705</v>
+      </c>
+      <c r="H199">
+        <v>0.8042874668038037</v>
+      </c>
+      <c r="I199">
+        <v>0.78899555392673526</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>16</v>
+      </c>
+      <c r="B200" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>16</v>
+      </c>
+      <c r="B202" t="s">
+        <v>43</v>
+      </c>
+      <c r="C202">
+        <v>0.49701224325186982</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0.49701224325186982</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0.99396207090089139</v>
+      </c>
+      <c r="I202">
+        <v>0.4969810354504457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>16</v>
+      </c>
+      <c r="B203" t="s">
+        <v>38</v>
+      </c>
+      <c r="C203">
+        <v>0.34851968150723339</v>
+      </c>
+      <c r="D203">
+        <v>0.49349033342149429</v>
+      </c>
+      <c r="E203">
+        <v>0.34851968150723339</v>
+      </c>
+      <c r="F203">
+        <v>0.40374487965463862</v>
+      </c>
+      <c r="G203">
+        <v>0.63539704722052004</v>
+      </c>
+      <c r="H203">
+        <v>6.1400795366459412E-2</v>
+      </c>
+      <c r="I203">
+        <v>0.34839892129348982</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>16</v>
+      </c>
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204">
+        <v>0.93834594249532011</v>
+      </c>
+      <c r="D204">
+        <v>0.93795572858290421</v>
+      </c>
+      <c r="E204">
+        <v>0.93834594249532011</v>
+      </c>
+      <c r="F204">
+        <v>0.94285772644647436</v>
+      </c>
+      <c r="G204">
+        <v>0.93333922063292651</v>
+      </c>
+      <c r="H204">
+        <v>0.94346659654487774</v>
+      </c>
+      <c r="I204">
+        <v>0.93840290858890196</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>16</v>
+      </c>
+      <c r="B205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205">
+        <v>0.93717812130675204</v>
+      </c>
+      <c r="D205">
+        <v>0.93690922590072656</v>
+      </c>
+      <c r="E205">
+        <v>0.93717812130675204</v>
+      </c>
+      <c r="F205">
+        <v>0.93993554093442411</v>
+      </c>
+      <c r="G205">
+        <v>0.93411729268508359</v>
+      </c>
+      <c r="H205">
+        <v>0.94033546685802649</v>
+      </c>
+      <c r="I205">
+        <v>0.93722637977155487</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>16</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206">
+        <v>0.93588063206839145</v>
+      </c>
+      <c r="D206">
+        <v>0.935625211830582</v>
+      </c>
+      <c r="E206">
+        <v>0.93588063206839145</v>
+      </c>
+      <c r="F206">
+        <v>0.93864987856483617</v>
+      </c>
+      <c r="G206">
+        <v>0.9328997411612121</v>
+      </c>
+      <c r="H206">
+        <v>0.93903756719856191</v>
+      </c>
+      <c r="I206">
+        <v>0.93596865417988695</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>16</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <v>0.93380486495113058</v>
+      </c>
+      <c r="D207">
+        <v>0.93341664043928751</v>
+      </c>
+      <c r="E207">
+        <v>0.93380486495113058</v>
+      </c>
+      <c r="F207">
+        <v>0.93771538552600542</v>
+      </c>
+      <c r="G207">
+        <v>0.92945790410730333</v>
+      </c>
+      <c r="H207">
+        <v>0.93826767828120239</v>
+      </c>
+      <c r="I207">
+        <v>0.93386279119425275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>16</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>0.92835233693636199</v>
+      </c>
+      <c r="D208">
+        <v>0.92766734358194691</v>
+      </c>
+      <c r="E208">
+        <v>0.92835233693636199</v>
+      </c>
+      <c r="F208">
+        <v>0.9345879669350815</v>
+      </c>
+      <c r="G208">
+        <v>0.92118851839158933</v>
+      </c>
+      <c r="H208">
+        <v>0.93568700908884839</v>
+      </c>
+      <c r="I208">
+        <v>0.9284377637402188</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>16</v>
+      </c>
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209">
+        <v>0.86058932376359754</v>
+      </c>
+      <c r="D209">
+        <v>0.86773536750595359</v>
+      </c>
+      <c r="E209">
+        <v>0.86058932376359754</v>
+      </c>
+      <c r="F209">
+        <v>0.82345094210197256</v>
+      </c>
+      <c r="G209">
+        <v>0.91763175920311668</v>
+      </c>
+      <c r="H209">
+        <v>0.80401025173302243</v>
+      </c>
+      <c r="I209">
+        <v>0.86082100546806928</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>16</v>
+      </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210">
+        <v>0.85877181442534134</v>
+      </c>
+      <c r="D210">
+        <v>0.86623049080849479</v>
+      </c>
+      <c r="E210">
+        <v>0.85877181442534134</v>
+      </c>
+      <c r="F210">
+        <v>0.82094748660335015</v>
+      </c>
+      <c r="G210">
+        <v>0.91742456280301643</v>
+      </c>
+      <c r="H210">
+        <v>0.80064184308393715</v>
+      </c>
+      <c r="I210">
+        <v>0.85903320294347674</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>16</v>
+      </c>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211">
+        <v>0.85643455456733453</v>
+      </c>
+      <c r="D211">
+        <v>0.86439116308170294</v>
+      </c>
+      <c r="E211">
+        <v>0.85643455456733453</v>
+      </c>
+      <c r="F211">
+        <v>0.81742192900473387</v>
+      </c>
+      <c r="G211">
+        <v>0.91769840079323139</v>
+      </c>
+      <c r="H211">
+        <v>0.79570495294228982</v>
+      </c>
+      <c r="I211">
+        <v>0.85670167686776055</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>16</v>
+      </c>
+      <c r="B212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212">
+        <v>0.85396978330069606</v>
+      </c>
+      <c r="D212">
+        <v>0.86258907375159344</v>
+      </c>
+      <c r="E212">
+        <v>0.85396978330069606</v>
+      </c>
+      <c r="F212">
+        <v>0.812861587732711</v>
+      </c>
+      <c r="G212">
+        <v>0.919497360554137</v>
+      </c>
+      <c r="H212">
+        <v>0.78908545415190612</v>
+      </c>
+      <c r="I212">
+        <v>0.85429140735302156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>16</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213">
+        <v>0.83813491515773664</v>
+      </c>
+      <c r="D213">
+        <v>0.85015123221994371</v>
+      </c>
+      <c r="E213">
+        <v>0.83813491515773664</v>
+      </c>
+      <c r="F213">
+        <v>0.79062676643670349</v>
+      </c>
+      <c r="G213">
+        <v>0.92027525111487929</v>
+      </c>
+      <c r="H213">
+        <v>0.75668536943379161</v>
+      </c>
+      <c r="I213">
+        <v>0.83848031027433556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>16</v>
+      </c>
+      <c r="B214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214">
+        <v>0.83424298660294516</v>
+      </c>
+      <c r="D214">
+        <v>0.82963269358248137</v>
+      </c>
+      <c r="E214">
+        <v>0.83424298660294516</v>
+      </c>
+      <c r="F214">
+        <v>0.85270549005569896</v>
+      </c>
+      <c r="G214">
+        <v>0.80834516144131607</v>
+      </c>
+      <c r="H214">
+        <v>0.86032529352334086</v>
+      </c>
+      <c r="I214">
+        <v>0.83433522748232847</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>16</v>
+      </c>
+      <c r="B215" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215">
+        <v>0.83411358813329761</v>
+      </c>
+      <c r="D215">
+        <v>0.82947012604480974</v>
+      </c>
+      <c r="E215">
+        <v>0.83411358813329761</v>
+      </c>
+      <c r="F215">
+        <v>0.85267380832229434</v>
+      </c>
+      <c r="G215">
+        <v>0.80809109640066568</v>
+      </c>
+      <c r="H215">
+        <v>0.86034056722813068</v>
+      </c>
+      <c r="I215">
+        <v>0.83421583181439818</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>16</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216">
+        <v>0.83411358813329761</v>
+      </c>
+      <c r="D216">
+        <v>0.82943612583920334</v>
+      </c>
+      <c r="E216">
+        <v>0.83411358813329761</v>
+      </c>
+      <c r="F216">
+        <v>0.85290467728067432</v>
+      </c>
+      <c r="G216">
+        <v>0.80783067973399902</v>
+      </c>
+      <c r="H216">
+        <v>0.86057920226361873</v>
+      </c>
+      <c r="I216">
+        <v>0.83420494099880893</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>16</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217">
+        <v>0.83411331855315263</v>
+      </c>
+      <c r="D217">
+        <v>0.82952741200524871</v>
+      </c>
+      <c r="E217">
+        <v>0.83411331855315263</v>
+      </c>
+      <c r="F217">
+        <v>0.85248145799107522</v>
+      </c>
+      <c r="G217">
+        <v>0.80834516144131607</v>
+      </c>
+      <c r="H217">
+        <v>0.86004857700106385</v>
+      </c>
+      <c r="I217">
+        <v>0.83419686922118996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>16</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218">
+        <v>0.83385425203371266</v>
+      </c>
+      <c r="D218">
+        <v>0.82904292432824889</v>
+      </c>
+      <c r="E218">
+        <v>0.83385425203371266</v>
+      </c>
+      <c r="F218">
+        <v>0.85301019203063644</v>
+      </c>
+      <c r="G218">
+        <v>0.80703316566992267</v>
+      </c>
+      <c r="H218">
+        <v>0.86088919599710045</v>
+      </c>
+      <c r="I218">
+        <v>0.83396118083351167</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>16</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219">
+        <v>0.76246430758878903</v>
+      </c>
+      <c r="D219">
+        <v>0.75810970914842413</v>
+      </c>
+      <c r="E219">
+        <v>0.76246430758878903</v>
+      </c>
+      <c r="F219">
+        <v>0.77177465876305862</v>
+      </c>
+      <c r="G219">
+        <v>0.74583248740297248</v>
+      </c>
+      <c r="H219">
+        <v>0.77900056660687322</v>
+      </c>
+      <c r="I219">
+        <v>0.76241652700492268</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220">
+        <v>0.75493655161704942</v>
+      </c>
+      <c r="D220">
+        <v>0.75212518514746207</v>
+      </c>
+      <c r="E220">
+        <v>0.75493655161704942</v>
+      </c>
+      <c r="F220">
+        <v>0.76044579631863374</v>
+      </c>
+      <c r="G220">
+        <v>0.7449501095359381</v>
+      </c>
+      <c r="H220">
+        <v>0.76512982724907053</v>
+      </c>
+      <c r="I220">
+        <v>0.7550399683925042</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221">
+        <v>0.75376873042848125</v>
+      </c>
+      <c r="D221">
+        <v>0.751185565352531</v>
+      </c>
+      <c r="E221">
+        <v>0.75376873042848125</v>
+      </c>
+      <c r="F221">
+        <v>0.75874392807858548</v>
+      </c>
+      <c r="G221">
+        <v>0.74471733892014802</v>
+      </c>
+      <c r="H221">
+        <v>0.76305617625379374</v>
+      </c>
+      <c r="I221">
+        <v>0.75388675758697066</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>16</v>
+      </c>
+      <c r="B222" t="s">
+        <v>26</v>
+      </c>
+      <c r="C222">
+        <v>0.75221055718981011</v>
+      </c>
+      <c r="D222">
+        <v>0.7500638781127833</v>
+      </c>
+      <c r="E222">
+        <v>0.75221055718981011</v>
+      </c>
+      <c r="F222">
+        <v>0.75614925073150974</v>
+      </c>
+      <c r="G222">
+        <v>0.74497984801767347</v>
+      </c>
+      <c r="H222">
+        <v>0.75968684036928835</v>
+      </c>
+      <c r="I222">
+        <v>0.75233334419348075</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223">
+        <v>0.75039331743169901</v>
+      </c>
+      <c r="D223">
+        <v>0.74882558041574443</v>
+      </c>
+      <c r="E223">
+        <v>0.75039331743169901</v>
+      </c>
+      <c r="F223">
+        <v>0.75312332339459043</v>
+      </c>
+      <c r="G223">
+        <v>0.74550166165090015</v>
+      </c>
+      <c r="H223">
+        <v>0.75553796350920543</v>
+      </c>
+      <c r="I223">
+        <v>0.75051981258005263</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>95</v>
+      </c>
+      <c r="C224">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>16</v>
+      </c>
+      <c r="B225" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>16</v>
+      </c>
+      <c r="B226" t="s">
+        <v>97</v>
+      </c>
+      <c r="C226">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>16</v>
+      </c>
+      <c r="B227" t="s">
+        <v>98</v>
+      </c>
+      <c r="C227">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>99</v>
+      </c>
+      <c r="C228">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0.49999703461840389</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>20</v>
+      </c>
+      <c r="B229" t="s">
+        <v>93</v>
+      </c>
+      <c r="C229">
+        <v>0.95885202880021525</v>
+      </c>
+      <c r="D229">
+        <v>0.95865280558259447</v>
+      </c>
+      <c r="E229">
+        <v>0.95885202880021525</v>
+      </c>
+      <c r="F229">
+        <v>0.96262608415824147</v>
+      </c>
+      <c r="G229">
+        <v>0.95485982592468166</v>
+      </c>
+      <c r="H229">
+        <v>0.96284038505976199</v>
+      </c>
+      <c r="I229">
+        <v>0.95885010549222183</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>20</v>
+      </c>
+      <c r="B230" t="s">
+        <v>36</v>
+      </c>
+      <c r="C230">
+        <v>0.95755500975708219</v>
+      </c>
+      <c r="D230">
+        <v>0.95728143413528688</v>
+      </c>
+      <c r="E230">
+        <v>0.95755500975708219</v>
+      </c>
+      <c r="F230">
+        <v>0.96148405987216612</v>
+      </c>
+      <c r="G230">
+        <v>0.95324773590603296</v>
+      </c>
+      <c r="H230">
+        <v>0.96184831812828708</v>
+      </c>
+      <c r="I230">
+        <v>0.95754802701715991</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>20</v>
+      </c>
+      <c r="B231" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231">
+        <v>0.9570355292376016</v>
+      </c>
+      <c r="D231">
+        <v>0.95689564284358108</v>
+      </c>
+      <c r="E231">
+        <v>0.9570355292376016</v>
+      </c>
+      <c r="F231">
+        <v>0.96009060544678559</v>
+      </c>
+      <c r="G231">
+        <v>0.95386252940042893</v>
+      </c>
+      <c r="H231">
+        <v>0.96019451937694333</v>
+      </c>
+      <c r="I231">
+        <v>0.95702852438868613</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>34</v>
+      </c>
+      <c r="C232">
+        <v>0.95651604871812113</v>
+      </c>
+      <c r="D232">
+        <v>0.95645749785299439</v>
+      </c>
+      <c r="E232">
+        <v>0.95651604871812113</v>
+      </c>
+      <c r="F232">
+        <v>0.95893666112288956</v>
+      </c>
+      <c r="G232">
+        <v>0.95413982831309652</v>
+      </c>
+      <c r="H232">
+        <v>0.95883812968962534</v>
+      </c>
+      <c r="I232">
+        <v>0.95648897900136087</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>20</v>
+      </c>
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233">
+        <v>0.95599757755198156</v>
+      </c>
+      <c r="D233">
+        <v>0.95563795336438484</v>
+      </c>
+      <c r="E233">
+        <v>0.95599757755198156</v>
+      </c>
+      <c r="F233">
+        <v>0.96138970522417644</v>
+      </c>
+      <c r="G233">
+        <v>0.95010240527059397</v>
+      </c>
+      <c r="H233">
+        <v>0.96182335199933799</v>
+      </c>
+      <c r="I233">
+        <v>0.95596287863496632</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>20</v>
+      </c>
+      <c r="B234" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234">
+        <v>0.95573581858555934</v>
+      </c>
+      <c r="D234">
+        <v>0.95552131148623742</v>
+      </c>
+      <c r="E234">
+        <v>0.95573581858555934</v>
+      </c>
+      <c r="F234">
+        <v>0.95933738270677138</v>
+      </c>
+      <c r="G234">
+        <v>0.95194461270435071</v>
+      </c>
+      <c r="H234">
+        <v>0.95942052895419427</v>
+      </c>
+      <c r="I234">
+        <v>0.95568257082927244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235">
+        <v>0.95547776058138756</v>
+      </c>
+      <c r="D235">
+        <v>0.95519113052876503</v>
+      </c>
+      <c r="E235">
+        <v>0.95547776058138756</v>
+      </c>
+      <c r="F235">
+        <v>0.96004513328436991</v>
+      </c>
+      <c r="G235">
+        <v>0.9505046639930248</v>
+      </c>
+      <c r="H235">
+        <v>0.9605825569361629</v>
+      </c>
+      <c r="I235">
+        <v>0.9555436104645938</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s">
+        <v>94</v>
+      </c>
+      <c r="C236">
+        <v>0.95483009218760506</v>
+      </c>
+      <c r="D236">
+        <v>0.95438670365827993</v>
+      </c>
+      <c r="E236">
+        <v>0.95483009218760506</v>
+      </c>
+      <c r="F236">
+        <v>0.96291005332986346</v>
+      </c>
+      <c r="G236">
+        <v>0.94619920370030075</v>
+      </c>
+      <c r="H236">
+        <v>0.96323148483885834</v>
+      </c>
+      <c r="I236">
+        <v>0.9547153442695796</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>20</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237">
+        <v>0.88512347755871068</v>
+      </c>
+      <c r="D237">
+        <v>0.8825140226234709</v>
+      </c>
+      <c r="E237">
+        <v>0.88512347755871068</v>
+      </c>
+      <c r="F237">
+        <v>0.90055583548311202</v>
+      </c>
+      <c r="G237">
+        <v>0.86550024156705097</v>
+      </c>
+      <c r="H237">
+        <v>0.90488268405980532</v>
+      </c>
+      <c r="I237">
+        <v>0.88519146281342809</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>49</v>
+      </c>
+      <c r="C238">
+        <v>0.87928033106789572</v>
+      </c>
+      <c r="D238">
+        <v>0.87460063768102037</v>
+      </c>
+      <c r="E238">
+        <v>0.87928033106789572</v>
+      </c>
+      <c r="F238">
+        <v>0.90709937883005021</v>
+      </c>
+      <c r="G238">
+        <v>0.84481474350642516</v>
+      </c>
+      <c r="H238">
+        <v>0.91407039227918996</v>
+      </c>
+      <c r="I238">
+        <v>0.87944256789280773</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239">
+        <v>0.8690293385371104</v>
+      </c>
+      <c r="D239">
+        <v>0.87139537906711106</v>
+      </c>
+      <c r="E239">
+        <v>0.8690293385371104</v>
+      </c>
+      <c r="F239">
+        <v>0.85452867076027683</v>
+      </c>
+      <c r="G239">
+        <v>0.88957141081796287</v>
+      </c>
+      <c r="H239">
+        <v>0.84900291377360626</v>
+      </c>
+      <c r="I239">
+        <v>0.86928716229578451</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>40</v>
+      </c>
+      <c r="C240">
+        <v>0.86773097368952301</v>
+      </c>
+      <c r="D240">
+        <v>0.86876554218313906</v>
+      </c>
+      <c r="E240">
+        <v>0.86773097368952301</v>
+      </c>
+      <c r="F240">
+        <v>0.8603769154896922</v>
+      </c>
+      <c r="G240">
+        <v>0.87785873714798213</v>
+      </c>
+      <c r="H240">
+        <v>0.8580884220750189</v>
+      </c>
+      <c r="I240">
+        <v>0.86797357961150046</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241">
+        <v>0.85164019917905931</v>
+      </c>
+      <c r="D241">
+        <v>0.85673182230878808</v>
+      </c>
+      <c r="E241">
+        <v>0.85164019917905931</v>
+      </c>
+      <c r="F241">
+        <v>0.82735144321744536</v>
+      </c>
+      <c r="G241">
+        <v>0.88903131190807783</v>
+      </c>
+      <c r="H241">
+        <v>0.81487332741924978</v>
+      </c>
+      <c r="I241">
+        <v>0.85195231966366358</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>20</v>
+      </c>
+      <c r="B242" t="s">
+        <v>46</v>
+      </c>
+      <c r="C242">
+        <v>0.82957203418343306</v>
+      </c>
+      <c r="D242">
+        <v>0.82946557640121132</v>
+      </c>
+      <c r="E242">
+        <v>0.82957203418343306</v>
+      </c>
+      <c r="F242">
+        <v>0.8284894617446048</v>
+      </c>
+      <c r="G242">
+        <v>0.83121318176004544</v>
+      </c>
+      <c r="H242">
+        <v>0.82848142600229635</v>
+      </c>
+      <c r="I242">
+        <v>0.82984730388117089</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s">
+        <v>37</v>
+      </c>
+      <c r="C243">
+        <v>0.82905053495727044</v>
+      </c>
+      <c r="D243">
+        <v>0.80902449171579727</v>
+      </c>
+      <c r="E243">
+        <v>0.82905053495727044</v>
+      </c>
+      <c r="F243">
+        <v>0.91487148155016862</v>
+      </c>
+      <c r="G243">
+        <v>0.72566214998385947</v>
+      </c>
+      <c r="H243">
+        <v>0.93261110877597275</v>
+      </c>
+      <c r="I243">
+        <v>0.82913662937991606</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>20</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244">
+        <v>0.82152345064262167</v>
+      </c>
+      <c r="D244">
+        <v>0.81542019228446405</v>
+      </c>
+      <c r="E244">
+        <v>0.82152345064262167</v>
+      </c>
+      <c r="F244">
+        <v>0.84264037203983921</v>
+      </c>
+      <c r="G244">
+        <v>0.79073141086369381</v>
+      </c>
+      <c r="H244">
+        <v>0.8528323562098572</v>
+      </c>
+      <c r="I244">
+        <v>0.8217818835367755</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>44</v>
+      </c>
+      <c r="C245">
+        <v>0.78920328376286919</v>
+      </c>
+      <c r="D245">
+        <v>0.78552836139093052</v>
+      </c>
+      <c r="E245">
+        <v>0.78920328376286919</v>
+      </c>
+      <c r="F245">
+        <v>0.79850349159009926</v>
+      </c>
+      <c r="G245">
+        <v>0.77398350354969292</v>
+      </c>
+      <c r="H245">
+        <v>0.80429380729621891</v>
+      </c>
+      <c r="I245">
+        <v>0.78913865542295603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>20</v>
+      </c>
+      <c r="B247" t="s">
+        <v>42</v>
+      </c>
+      <c r="C247">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>20</v>
+      </c>
+      <c r="B248" t="s">
+        <v>43</v>
+      </c>
+      <c r="C248">
+        <v>0.49701635152412338</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0.49701635152412338</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0.99395601566241876</v>
+      </c>
+      <c r="I248">
+        <v>0.49697800783120938</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>20</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249">
+        <v>0.34851557768656222</v>
+      </c>
+      <c r="D249">
+        <v>0.49343757042380232</v>
+      </c>
+      <c r="E249">
+        <v>0.34851557768656222</v>
+      </c>
+      <c r="F249">
+        <v>0.4037693679721433</v>
+      </c>
+      <c r="G249">
+        <v>0.63547208004534239</v>
+      </c>
+      <c r="H249">
+        <v>6.1393697380579253E-2</v>
+      </c>
+      <c r="I249">
+        <v>0.34843288871296069</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>20</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250">
+        <v>0.93860440078056673</v>
+      </c>
+      <c r="D250">
+        <v>0.93812072301753668</v>
+      </c>
+      <c r="E250">
+        <v>0.93860440078056673</v>
+      </c>
+      <c r="F250">
+        <v>0.94297884469902338</v>
+      </c>
+      <c r="G250">
+        <v>0.93357398112558898</v>
+      </c>
+      <c r="H250">
+        <v>0.94383164325309499</v>
+      </c>
+      <c r="I250">
+        <v>0.93870281218934171</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>20</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251">
+        <v>0.9374359060628491</v>
+      </c>
+      <c r="D251">
+        <v>0.93705199028876685</v>
+      </c>
+      <c r="E251">
+        <v>0.9374359060628491</v>
+      </c>
+      <c r="F251">
+        <v>0.94054996311944561</v>
+      </c>
+      <c r="G251">
+        <v>0.93384607687468413</v>
+      </c>
+      <c r="H251">
+        <v>0.94120796001712947</v>
+      </c>
+      <c r="I251">
+        <v>0.93752701844590658</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252">
+        <v>0.93613922347082956</v>
+      </c>
+      <c r="D252">
+        <v>0.93580872078814181</v>
+      </c>
+      <c r="E252">
+        <v>0.93613922347082956</v>
+      </c>
+      <c r="F252">
+        <v>0.93862138777995274</v>
+      </c>
+      <c r="G252">
+        <v>0.93336292058619852</v>
+      </c>
+      <c r="H252">
+        <v>0.93909808005967044</v>
+      </c>
+      <c r="I252">
+        <v>0.93623050032293453</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>20</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>0.93393311351860575</v>
+      </c>
+      <c r="D253">
+        <v>0.93350842735516992</v>
+      </c>
+      <c r="E253">
+        <v>0.93393311351860575</v>
+      </c>
+      <c r="F253">
+        <v>0.93792263797286135</v>
+      </c>
+      <c r="G253">
+        <v>0.92947614747745677</v>
+      </c>
+      <c r="H253">
+        <v>0.9385273379441319</v>
+      </c>
+      <c r="I253">
+        <v>0.9340017427107945</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>20</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254">
+        <v>0.92913128322454741</v>
+      </c>
+      <c r="D254">
+        <v>0.92848194375644577</v>
+      </c>
+      <c r="E254">
+        <v>0.92913128322454741</v>
+      </c>
+      <c r="F254">
+        <v>0.93471244359659678</v>
+      </c>
+      <c r="G254">
+        <v>0.92272222926687708</v>
+      </c>
+      <c r="H254">
+        <v>0.93565482827557245</v>
+      </c>
+      <c r="I254">
+        <v>0.92918852877122471</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>20</v>
+      </c>
+      <c r="B255" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255">
+        <v>0.86072236054101336</v>
+      </c>
+      <c r="D255">
+        <v>0.8679857472867194</v>
+      </c>
+      <c r="E255">
+        <v>0.86072236054101336</v>
+      </c>
+      <c r="F255">
+        <v>0.8241775132071899</v>
+      </c>
+      <c r="G255">
+        <v>0.91746797255079215</v>
+      </c>
+      <c r="H255">
+        <v>0.80466969809113265</v>
+      </c>
+      <c r="I255">
+        <v>0.86106883532096234</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>20</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>0.85929479846578283</v>
+      </c>
+      <c r="D256">
+        <v>0.86684459468233366</v>
+      </c>
+      <c r="E256">
+        <v>0.85929479846578283</v>
+      </c>
+      <c r="F256">
+        <v>0.8222118670325026</v>
+      </c>
+      <c r="G256">
+        <v>0.91748802400208052</v>
+      </c>
+      <c r="H256">
+        <v>0.80190094357770081</v>
+      </c>
+      <c r="I256">
+        <v>0.85969448378989066</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>20</v>
+      </c>
+      <c r="B257" t="s">
+        <v>21</v>
+      </c>
+      <c r="C257">
+        <v>0.85656887154296457</v>
+      </c>
+      <c r="D257">
+        <v>0.86461678888032156</v>
+      </c>
+      <c r="E257">
+        <v>0.85656887154296457</v>
+      </c>
+      <c r="F257">
+        <v>0.81821624312466223</v>
+      </c>
+      <c r="G257">
+        <v>0.91748502979021951</v>
+      </c>
+      <c r="H257">
+        <v>0.79649008674315414</v>
+      </c>
+      <c r="I257">
+        <v>0.85698755826668671</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>20</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+      <c r="C258">
+        <v>0.85371273803916292</v>
+      </c>
+      <c r="D258">
+        <v>0.86253479936252098</v>
+      </c>
+      <c r="E258">
+        <v>0.85371273803916292</v>
+      </c>
+      <c r="F258">
+        <v>0.81328346011381591</v>
+      </c>
+      <c r="G258">
+        <v>0.91907110363466271</v>
+      </c>
+      <c r="H258">
+        <v>0.78914060125307506</v>
+      </c>
+      <c r="I258">
+        <v>0.85410585244386872</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>20</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259">
+        <v>0.83761624385976707</v>
+      </c>
+      <c r="D259">
+        <v>0.84985941716446312</v>
+      </c>
+      <c r="E259">
+        <v>0.83761624385976707</v>
+      </c>
+      <c r="F259">
+        <v>0.79019964951254784</v>
+      </c>
+      <c r="G259">
+        <v>0.92031742512417014</v>
+      </c>
+      <c r="H259">
+        <v>0.75570671036660675</v>
+      </c>
+      <c r="I259">
+        <v>0.83801206774538861</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>20</v>
+      </c>
+      <c r="B260" t="s">
+        <v>28</v>
+      </c>
+      <c r="C260">
+        <v>0.83385505686023809</v>
+      </c>
+      <c r="D260">
+        <v>0.8291060192069033</v>
+      </c>
+      <c r="E260">
+        <v>0.83385505686023809</v>
+      </c>
+      <c r="F260">
+        <v>0.85224335032293763</v>
+      </c>
+      <c r="G260">
+        <v>0.80793654814351468</v>
+      </c>
+      <c r="H260">
+        <v>0.8604244671782576</v>
+      </c>
+      <c r="I260">
+        <v>0.83418050766088625</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>20</v>
+      </c>
+      <c r="B261" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261">
+        <v>0.833725186730368</v>
+      </c>
+      <c r="D261">
+        <v>0.82899734287100446</v>
+      </c>
+      <c r="E261">
+        <v>0.833725186730368</v>
+      </c>
+      <c r="F261">
+        <v>0.85200201707055467</v>
+      </c>
+      <c r="G261">
+        <v>0.80793654814351468</v>
+      </c>
+      <c r="H261">
+        <v>0.86015272804782283</v>
+      </c>
+      <c r="I261">
+        <v>0.83404463809566887</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>20</v>
+      </c>
+      <c r="B262" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262">
+        <v>0.8334654464706277</v>
+      </c>
+      <c r="D262">
+        <v>0.82868098617135766</v>
+      </c>
+      <c r="E262">
+        <v>0.8334654464706277</v>
+      </c>
+      <c r="F262">
+        <v>0.85192435032979108</v>
+      </c>
+      <c r="G262">
+        <v>0.8074246340298723</v>
+      </c>
+      <c r="H262">
+        <v>0.86015272804782283</v>
+      </c>
+      <c r="I262">
+        <v>0.83378868103884773</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>20</v>
+      </c>
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263">
+        <v>0.83333557634075761</v>
+      </c>
+      <c r="D263">
+        <v>0.82857428774329855</v>
+      </c>
+      <c r="E263">
+        <v>0.83333557634075761</v>
+      </c>
+      <c r="F263">
+        <v>0.85170162164440821</v>
+      </c>
+      <c r="G263">
+        <v>0.8074246340298723</v>
+      </c>
+      <c r="H263">
+        <v>0.85987495027004501</v>
+      </c>
+      <c r="I263">
+        <v>0.83364979214995893</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>20</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <v>0.83281676872350441</v>
+      </c>
+      <c r="D264">
+        <v>0.82808709693255955</v>
+      </c>
+      <c r="E264">
+        <v>0.83281676872350441</v>
+      </c>
+      <c r="F264">
+        <v>0.85095838603255669</v>
+      </c>
+      <c r="G264">
+        <v>0.80718592384769994</v>
+      </c>
+      <c r="H264">
+        <v>0.85908989190590235</v>
+      </c>
+      <c r="I264">
+        <v>0.83313790787680131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>20</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265">
+        <v>0.76246181279860037</v>
+      </c>
+      <c r="D265">
+        <v>0.75832583004826259</v>
+      </c>
+      <c r="E265">
+        <v>0.76246181279860037</v>
+      </c>
+      <c r="F265">
+        <v>0.77061178055793644</v>
+      </c>
+      <c r="G265">
+        <v>0.74735319822286939</v>
+      </c>
+      <c r="H265">
+        <v>0.77753679684083676</v>
+      </c>
+      <c r="I265">
+        <v>0.7624449975318528</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>20</v>
+      </c>
+      <c r="B266" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266">
+        <v>0.75389677679833123</v>
+      </c>
+      <c r="D266">
+        <v>0.7511625278797065</v>
+      </c>
+      <c r="E266">
+        <v>0.75389677679833123</v>
+      </c>
+      <c r="F266">
+        <v>0.75877833722534005</v>
+      </c>
+      <c r="G266">
+        <v>0.7445670985460856</v>
+      </c>
+      <c r="H266">
+        <v>0.76335776239787911</v>
+      </c>
+      <c r="I266">
+        <v>0.7539624304719823</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>20</v>
+      </c>
+      <c r="B267" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267">
+        <v>0.75259773904851635</v>
+      </c>
+      <c r="D267">
+        <v>0.75011115287894214</v>
+      </c>
+      <c r="E267">
+        <v>0.75259773904851635</v>
+      </c>
+      <c r="F267">
+        <v>0.75693161264210507</v>
+      </c>
+      <c r="G267">
+        <v>0.74429658680896593</v>
+      </c>
+      <c r="H267">
+        <v>0.76105916904661863</v>
+      </c>
+      <c r="I267">
+        <v>0.75267787792779228</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>20</v>
+      </c>
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268">
+        <v>0.75013155238543849</v>
+      </c>
+      <c r="D268">
+        <v>0.74823350462537497</v>
+      </c>
+      <c r="E268">
+        <v>0.75013155238543849</v>
+      </c>
+      <c r="F268">
+        <v>0.7529777673770276</v>
+      </c>
+      <c r="G268">
+        <v>0.74434039101018945</v>
+      </c>
+      <c r="H268">
+        <v>0.75597868591978945</v>
+      </c>
+      <c r="I268">
+        <v>0.75015953846498951</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>20</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269">
+        <v>0.7494811923827468</v>
+      </c>
+      <c r="D269">
+        <v>0.74755273036489778</v>
+      </c>
+      <c r="E269">
+        <v>0.7494811923827468</v>
+      </c>
+      <c r="F269">
+        <v>0.75248475993889985</v>
+      </c>
+      <c r="G269">
+        <v>0.7435382701937977</v>
+      </c>
+      <c r="H269">
+        <v>0.75562523005659288</v>
+      </c>
+      <c r="I269">
+        <v>0.74958175012519523</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>20</v>
+      </c>
+      <c r="B270" t="s">
+        <v>95</v>
+      </c>
+      <c r="C270">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>20</v>
+      </c>
+      <c r="B271" t="s">
+        <v>96</v>
+      </c>
+      <c r="C271">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>20</v>
+      </c>
+      <c r="B272" t="s">
+        <v>97</v>
+      </c>
+      <c r="C272">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>20</v>
+      </c>
+      <c r="B273" t="s">
+        <v>98</v>
+      </c>
+      <c r="C273">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>20</v>
+      </c>
+      <c r="B274" t="s">
+        <v>99</v>
+      </c>
+      <c r="C274">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0.50000201870668182</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>25</v>
+      </c>
+      <c r="B275" t="s">
+        <v>36</v>
+      </c>
+      <c r="C275">
+        <v>0.9589820535451602</v>
+      </c>
+      <c r="D275">
+        <v>0.9586070921640264</v>
+      </c>
+      <c r="E275">
+        <v>0.9589820535451602</v>
+      </c>
+      <c r="F275">
+        <v>0.96319223782580243</v>
+      </c>
+      <c r="G275">
+        <v>0.95428489059896049</v>
+      </c>
+      <c r="H275">
+        <v>0.96383073568299038</v>
+      </c>
+      <c r="I275">
+        <v>0.95905781314097538</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>25</v>
+      </c>
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276">
+        <v>0.9578128020846467</v>
+      </c>
+      <c r="D276">
+        <v>0.95748766578514621</v>
+      </c>
+      <c r="E276">
+        <v>0.9578128020846467</v>
+      </c>
+      <c r="F276">
+        <v>0.96239564739599959</v>
+      </c>
+      <c r="G276">
+        <v>0.95284505896415683</v>
+      </c>
+      <c r="H276">
+        <v>0.96301648986557398</v>
+      </c>
+      <c r="I276">
+        <v>0.95793077441486529</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>25</v>
+      </c>
+      <c r="B277" t="s">
+        <v>93</v>
+      </c>
+      <c r="C277">
+        <v>0.95768335224645895</v>
+      </c>
+      <c r="D277">
+        <v>0.95739584463677008</v>
+      </c>
+      <c r="E277">
+        <v>0.95768335224645895</v>
+      </c>
+      <c r="F277">
+        <v>0.96124048731760081</v>
+      </c>
+      <c r="G277">
+        <v>0.9538737538465536</v>
+      </c>
+      <c r="H277">
+        <v>0.96171089979063917</v>
+      </c>
+      <c r="I277">
+        <v>0.95779232681859627</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>25</v>
+      </c>
+      <c r="B278" t="s">
+        <v>31</v>
+      </c>
+      <c r="C278">
+        <v>0.95651494136931003</v>
+      </c>
+      <c r="D278">
+        <v>0.95632084367417136</v>
+      </c>
+      <c r="E278">
+        <v>0.95651494136931003</v>
+      </c>
+      <c r="F278">
+        <v>0.95969445477936011</v>
+      </c>
+      <c r="G278">
+        <v>0.95319000291434575</v>
+      </c>
+      <c r="H278">
+        <v>0.96014273936616445</v>
+      </c>
+      <c r="I278">
+        <v>0.95666637114025521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>25</v>
+      </c>
+      <c r="B279" t="s">
+        <v>32</v>
+      </c>
+      <c r="C279">
+        <v>0.95625478081788773</v>
+      </c>
+      <c r="D279">
+        <v>0.95584902005153594</v>
+      </c>
+      <c r="E279">
+        <v>0.95625478081788773</v>
+      </c>
+      <c r="F279">
+        <v>0.96256844348860593</v>
+      </c>
+      <c r="G279">
+        <v>0.94942680411533342</v>
+      </c>
+      <c r="H279">
+        <v>0.96319511695914617</v>
+      </c>
+      <c r="I279">
+        <v>0.95631096053723974</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>25</v>
+      </c>
+      <c r="B280" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280">
+        <v>0.95625436052620505</v>
+      </c>
+      <c r="D280">
+        <v>0.9559263543613028</v>
+      </c>
+      <c r="E280">
+        <v>0.95625436052620505</v>
+      </c>
+      <c r="F280">
+        <v>0.95936450702607312</v>
+      </c>
+      <c r="G280">
+        <v>0.9527799080400351</v>
+      </c>
+      <c r="H280">
+        <v>0.95997923340645142</v>
+      </c>
+      <c r="I280">
+        <v>0.95637957072324331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>25</v>
+      </c>
+      <c r="B281" t="s">
+        <v>34</v>
+      </c>
+      <c r="C281">
+        <v>0.95560753162694911</v>
+      </c>
+      <c r="D281">
+        <v>0.95522530088865698</v>
+      </c>
+      <c r="E281">
+        <v>0.95560753162694911</v>
+      </c>
+      <c r="F281">
+        <v>0.95904039636955352</v>
+      </c>
+      <c r="G281">
+        <v>0.95167331064338978</v>
+      </c>
+      <c r="H281">
+        <v>0.95970166522551326</v>
+      </c>
+      <c r="I281">
+        <v>0.95568748793445168</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>25</v>
+      </c>
+      <c r="B282" t="s">
+        <v>94</v>
+      </c>
+      <c r="C282">
+        <v>0.95392216198041424</v>
+      </c>
+      <c r="D282">
+        <v>0.95329715594768327</v>
+      </c>
+      <c r="E282">
+        <v>0.95392216198041424</v>
+      </c>
+      <c r="F282">
+        <v>0.96175560814291383</v>
+      </c>
+      <c r="G282">
+        <v>0.94521064330571491</v>
+      </c>
+      <c r="H282">
+        <v>0.96285772684187554</v>
+      </c>
+      <c r="I282">
+        <v>0.954034185073795</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>25</v>
+      </c>
+      <c r="B283" t="s">
+        <v>48</v>
+      </c>
+      <c r="C283">
+        <v>0.88512587735888715</v>
+      </c>
+      <c r="D283">
+        <v>0.88232989795015671</v>
+      </c>
+      <c r="E283">
+        <v>0.88512587735888715</v>
+      </c>
+      <c r="F283">
+        <v>0.90028596899994984</v>
+      </c>
+      <c r="G283">
+        <v>0.86555745773421711</v>
+      </c>
+      <c r="H283">
+        <v>0.90526652049796485</v>
+      </c>
+      <c r="I283">
+        <v>0.88541198911609076</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>25</v>
+      </c>
+      <c r="B284" t="s">
+        <v>49</v>
+      </c>
+      <c r="C284">
+        <v>0.87928088093136669</v>
+      </c>
+      <c r="D284">
+        <v>0.87460794519415952</v>
+      </c>
+      <c r="E284">
+        <v>0.87928088093136669</v>
+      </c>
+      <c r="F284">
+        <v>0.90706179800842746</v>
+      </c>
+      <c r="G284">
+        <v>0.84504092346108295</v>
+      </c>
+      <c r="H284">
+        <v>0.91410633327208546</v>
+      </c>
+      <c r="I284">
+        <v>0.87957362836658415</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>25</v>
+      </c>
+      <c r="B285" t="s">
+        <v>47</v>
+      </c>
+      <c r="C285">
+        <v>0.86903038708863944</v>
+      </c>
+      <c r="D285">
+        <v>0.87120328704943195</v>
+      </c>
+      <c r="E285">
+        <v>0.86903038708863944</v>
+      </c>
+      <c r="F285">
+        <v>0.8542773816058612</v>
+      </c>
+      <c r="G285">
+        <v>0.88970599575308174</v>
+      </c>
+      <c r="H285">
+        <v>0.84934421239845248</v>
+      </c>
+      <c r="I285">
+        <v>0.86952510407576711</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>25</v>
+      </c>
+      <c r="B286" t="s">
+        <v>40</v>
+      </c>
+      <c r="C286">
+        <v>0.86773336695666781</v>
+      </c>
+      <c r="D286">
+        <v>0.86851089041261986</v>
+      </c>
+      <c r="E286">
+        <v>0.86773336695666781</v>
+      </c>
+      <c r="F286">
+        <v>0.86020623539576857</v>
+      </c>
+      <c r="G286">
+        <v>0.8779435323634287</v>
+      </c>
+      <c r="H286">
+        <v>0.85872924041503151</v>
+      </c>
+      <c r="I286">
+        <v>0.86833638638923016</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>25</v>
+      </c>
+      <c r="B287" t="s">
+        <v>45</v>
+      </c>
+      <c r="C287">
+        <v>0.85164039843651496</v>
+      </c>
+      <c r="D287">
+        <v>0.85647583119203885</v>
+      </c>
+      <c r="E287">
+        <v>0.85164039843651496</v>
+      </c>
+      <c r="F287">
+        <v>0.82717534769459999</v>
+      </c>
+      <c r="G287">
+        <v>0.88903429837543702</v>
+      </c>
+      <c r="H287">
+        <v>0.8150474582984637</v>
+      </c>
+      <c r="I287">
+        <v>0.8520408783369503</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>25</v>
+      </c>
+      <c r="B288" t="s">
+        <v>46</v>
+      </c>
+      <c r="C288">
+        <v>0.82957466481738318</v>
+      </c>
+      <c r="D288">
+        <v>0.82920756475442747</v>
+      </c>
+      <c r="E288">
+        <v>0.82957466481738318</v>
+      </c>
+      <c r="F288">
+        <v>0.82841822950845811</v>
+      </c>
+      <c r="G288">
+        <v>0.83093947161779669</v>
+      </c>
+      <c r="H288">
+        <v>0.82855461574181499</v>
+      </c>
+      <c r="I288">
+        <v>0.8297470436798059</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>25</v>
+      </c>
+      <c r="B289" t="s">
+        <v>37</v>
+      </c>
+      <c r="C289">
+        <v>0.82892489387635004</v>
+      </c>
+      <c r="D289">
+        <v>0.80834407232044669</v>
+      </c>
+      <c r="E289">
+        <v>0.82892489387635004</v>
+      </c>
+      <c r="F289">
+        <v>0.91527785770358139</v>
+      </c>
+      <c r="G289">
+        <v>0.7248565694394461</v>
+      </c>
+      <c r="H289">
+        <v>0.93335870587250525</v>
+      </c>
+      <c r="I289">
+        <v>0.82910763765597562</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>25</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290">
+        <v>0.82126633883915434</v>
+      </c>
+      <c r="D290">
+        <v>0.81488583735072395</v>
+      </c>
+      <c r="E290">
+        <v>0.82126633883915434</v>
+      </c>
+      <c r="F290">
+        <v>0.84240371671544678</v>
+      </c>
+      <c r="G290">
+        <v>0.79025924333231468</v>
+      </c>
+      <c r="H290">
+        <v>0.85285828615430548</v>
+      </c>
+      <c r="I290">
+        <v>0.82155876474331013</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>25</v>
+      </c>
+      <c r="B291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C291">
+        <v>0.78920564872021171</v>
+      </c>
+      <c r="D291">
+        <v>0.78521087645465304</v>
+      </c>
+      <c r="E291">
+        <v>0.78920564872021171</v>
+      </c>
+      <c r="F291">
+        <v>0.79813674473801921</v>
+      </c>
+      <c r="G291">
+        <v>0.77379495371868046</v>
+      </c>
+      <c r="H291">
+        <v>0.80444494942536293</v>
+      </c>
+      <c r="I291">
+        <v>0.78911995157202175</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>25</v>
+      </c>
+      <c r="B292" t="s">
+        <v>41</v>
+      </c>
+      <c r="C292">
+        <v>0.50000252175009463</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0.50000252175009463</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>25</v>
+      </c>
+      <c r="B293" t="s">
+        <v>42</v>
+      </c>
+      <c r="C293">
+        <v>0.50000252175009463</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0.50000252175009463</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>25</v>
+      </c>
+      <c r="B294" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294">
+        <v>0.49701634934644651</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0.49701634934644651</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0.99395333913124617</v>
+      </c>
+      <c r="I294">
+        <v>0.49697666956562309</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>25</v>
+      </c>
+      <c r="B295" t="s">
+        <v>38</v>
+      </c>
+      <c r="C295">
+        <v>0.34851090656915912</v>
+      </c>
+      <c r="D295">
+        <v>0.49318826530160642</v>
+      </c>
+      <c r="E295">
+        <v>0.34851090656915912</v>
+      </c>
+      <c r="F295">
+        <v>0.40375058735009439</v>
+      </c>
+      <c r="G295">
+        <v>0.63572617302103895</v>
+      </c>
+      <c r="H295">
+        <v>6.1277381923201972E-2</v>
+      </c>
+      <c r="I295">
+        <v>0.34850177747212052</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>25</v>
+      </c>
+      <c r="B296" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296">
+        <v>0.93834531164628254</v>
+      </c>
+      <c r="D296">
+        <v>0.93778878431026558</v>
+      </c>
+      <c r="E296">
+        <v>0.93834531164628254</v>
+      </c>
+      <c r="F296">
+        <v>0.94265881952658803</v>
+      </c>
+      <c r="G296">
+        <v>0.93328743986589247</v>
+      </c>
+      <c r="H296">
+        <v>0.94355626775580825</v>
+      </c>
+      <c r="I296">
+        <v>0.93842185381085041</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>25</v>
+      </c>
+      <c r="B297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297">
+        <v>0.9375669314504268</v>
+      </c>
+      <c r="D297">
+        <v>0.93711059113044148</v>
+      </c>
+      <c r="E297">
+        <v>0.9375669314504268</v>
+      </c>
+      <c r="F297">
+        <v>0.94045715292287679</v>
+      </c>
+      <c r="G297">
+        <v>0.93408965234330821</v>
+      </c>
+      <c r="H297">
+        <v>0.94120759942436794</v>
+      </c>
+      <c r="I297">
+        <v>0.93764862588383802</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>25</v>
+      </c>
+      <c r="B298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298">
+        <v>0.93614004118858507</v>
+      </c>
+      <c r="D298">
+        <v>0.93570963100234894</v>
+      </c>
+      <c r="E298">
+        <v>0.93614004118858507</v>
+      </c>
+      <c r="F298">
+        <v>0.9382148922093263</v>
+      </c>
+      <c r="G298">
+        <v>0.93357790500044724</v>
+      </c>
+      <c r="H298">
+        <v>0.9388931076355671</v>
+      </c>
+      <c r="I298">
+        <v>0.93623550631800745</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>25</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299">
+        <v>0.93393435043920481</v>
+      </c>
+      <c r="D299">
+        <v>0.9333527947452529</v>
+      </c>
+      <c r="E299">
+        <v>0.93393435043920481</v>
+      </c>
+      <c r="F299">
+        <v>0.93767461847471023</v>
+      </c>
+      <c r="G299">
+        <v>0.92942973695530062</v>
+      </c>
+      <c r="H299">
+        <v>0.93866546798429173</v>
+      </c>
+      <c r="I299">
+        <v>0.93404760246979623</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>25</v>
+      </c>
+      <c r="B300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300">
+        <v>0.92887445887445896</v>
+      </c>
+      <c r="D300">
+        <v>0.92793017318975202</v>
+      </c>
+      <c r="E300">
+        <v>0.92887445887445896</v>
+      </c>
+      <c r="F300">
+        <v>0.93446063477940111</v>
+      </c>
+      <c r="G300">
+        <v>0.92182472372641955</v>
+      </c>
+      <c r="H300">
+        <v>0.93614996218733781</v>
+      </c>
+      <c r="I300">
+        <v>0.92898734295687846</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>25</v>
+      </c>
+      <c r="B301" t="s">
+        <v>29</v>
+      </c>
+      <c r="C301">
+        <v>0.86046358172571757</v>
+      </c>
+      <c r="D301">
+        <v>0.86724150710231018</v>
+      </c>
+      <c r="E301">
+        <v>0.86046358172571757</v>
+      </c>
+      <c r="F301">
+        <v>0.82328710889247791</v>
+      </c>
+      <c r="G301">
+        <v>0.91718128275351585</v>
+      </c>
+      <c r="H301">
+        <v>0.80463818881917859</v>
+      </c>
+      <c r="I301">
+        <v>0.86090973578634733</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>25</v>
+      </c>
+      <c r="B302" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302">
+        <v>0.85864624049090077</v>
+      </c>
+      <c r="D302">
+        <v>0.86576140540439295</v>
+      </c>
+      <c r="E302">
+        <v>0.85864624049090077</v>
+      </c>
+      <c r="F302">
+        <v>0.82064025433567256</v>
+      </c>
+      <c r="G302">
+        <v>0.91726842527926333</v>
+      </c>
+      <c r="H302">
+        <v>0.80108158362884452</v>
+      </c>
+      <c r="I302">
+        <v>0.85917500445405404</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>25</v>
+      </c>
+      <c r="B303" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303">
+        <v>0.85579330055058223</v>
+      </c>
+      <c r="D303">
+        <v>0.8634716888650783</v>
+      </c>
+      <c r="E303">
+        <v>0.85579330055058223</v>
+      </c>
+      <c r="F303">
+        <v>0.81649496121934884</v>
+      </c>
+      <c r="G303">
+        <v>0.9173315623028071</v>
+      </c>
+      <c r="H303">
+        <v>0.79544068138999624</v>
+      </c>
+      <c r="I303">
+        <v>0.85638612184640162</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>25</v>
+      </c>
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304">
+        <v>0.8537145378892953</v>
+      </c>
+      <c r="D304">
+        <v>0.8620036946622015</v>
+      </c>
+      <c r="E304">
+        <v>0.8537145378892953</v>
+      </c>
+      <c r="F304">
+        <v>0.81251312472100068</v>
+      </c>
+      <c r="G304">
+        <v>0.91914383114648135</v>
+      </c>
+      <c r="H304">
+        <v>0.78964845827110119</v>
+      </c>
+      <c r="I304">
+        <v>0.85439614470879133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>25</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305">
+        <v>0.83917580801075942</v>
+      </c>
+      <c r="D305">
+        <v>0.85068849863200924</v>
+      </c>
+      <c r="E305">
+        <v>0.83917580801075942</v>
+      </c>
+      <c r="F305">
+        <v>0.79161558294628132</v>
+      </c>
+      <c r="G305">
+        <v>0.92069892442029611</v>
+      </c>
+      <c r="H305">
+        <v>0.75900596613172544</v>
+      </c>
+      <c r="I305">
+        <v>0.83985244527601055</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>25</v>
+      </c>
+      <c r="B306" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306">
+        <v>0.83399024923296783</v>
+      </c>
+      <c r="D306">
+        <v>0.82903912719841333</v>
+      </c>
+      <c r="E306">
+        <v>0.83399024923296783</v>
+      </c>
+      <c r="F306">
+        <v>0.85245904971540454</v>
+      </c>
+      <c r="G306">
+        <v>0.80783123474553564</v>
+      </c>
+      <c r="H306">
+        <v>0.8608734314854104</v>
+      </c>
+      <c r="I306">
+        <v>0.83435233311547263</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>25</v>
+      </c>
+      <c r="B307" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307">
+        <v>0.83399024923296783</v>
+      </c>
+      <c r="D307">
+        <v>0.82903912719841333</v>
+      </c>
+      <c r="E307">
+        <v>0.83399024923296783</v>
+      </c>
+      <c r="F307">
+        <v>0.85245904971540454</v>
+      </c>
+      <c r="G307">
+        <v>0.80783123474553564</v>
+      </c>
+      <c r="H307">
+        <v>0.8608734314854104</v>
+      </c>
+      <c r="I307">
+        <v>0.83435233311547263</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>25</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308">
+        <v>0.83399108981633274</v>
+      </c>
+      <c r="D308">
+        <v>0.82901615047359867</v>
+      </c>
+      <c r="E308">
+        <v>0.83399108981633274</v>
+      </c>
+      <c r="F308">
+        <v>0.85252221953012386</v>
+      </c>
+      <c r="G308">
+        <v>0.80780849005818633</v>
+      </c>
+      <c r="H308">
+        <v>0.86087650787228742</v>
+      </c>
+      <c r="I308">
+        <v>0.83434249896523671</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>25</v>
+      </c>
+      <c r="B309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309">
+        <v>0.83386037910309752</v>
+      </c>
+      <c r="D309">
+        <v>0.82893508853207432</v>
+      </c>
+      <c r="E309">
+        <v>0.83386037910309752</v>
+      </c>
+      <c r="F309">
+        <v>0.85225163504939105</v>
+      </c>
+      <c r="G309">
+        <v>0.80783123474553564</v>
+      </c>
+      <c r="H309">
+        <v>0.86061027359067355</v>
+      </c>
+      <c r="I309">
+        <v>0.83422075416810448</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>25</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310">
+        <v>0.83386037910309752</v>
+      </c>
+      <c r="D310">
+        <v>0.82893508853207432</v>
+      </c>
+      <c r="E310">
+        <v>0.83386037910309752</v>
+      </c>
+      <c r="F310">
+        <v>0.85225163504939105</v>
+      </c>
+      <c r="G310">
+        <v>0.80783123474553564</v>
+      </c>
+      <c r="H310">
+        <v>0.86061027359067355</v>
+      </c>
+      <c r="I310">
+        <v>0.83422075416810448</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>25</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311">
+        <v>0.76350397175639884</v>
+      </c>
+      <c r="D311">
+        <v>0.759533851507595</v>
+      </c>
+      <c r="E311">
+        <v>0.76350397175639884</v>
+      </c>
+      <c r="F311">
+        <v>0.77174561228615246</v>
+      </c>
+      <c r="G311">
+        <v>0.74908085217258991</v>
+      </c>
+      <c r="H311">
+        <v>0.77835922151801273</v>
+      </c>
+      <c r="I311">
+        <v>0.76372003684530132</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>25</v>
+      </c>
+      <c r="B312" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312">
+        <v>0.75428655486907914</v>
+      </c>
+      <c r="D312">
+        <v>0.75149727437971026</v>
+      </c>
+      <c r="E312">
+        <v>0.75428655486907914</v>
+      </c>
+      <c r="F312">
+        <v>0.75939368922964445</v>
+      </c>
+      <c r="G312">
+        <v>0.7453736152813546</v>
+      </c>
+      <c r="H312">
+        <v>0.76408091904985398</v>
+      </c>
+      <c r="I312">
+        <v>0.75472726716560445</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>25</v>
+      </c>
+      <c r="B313" t="s">
+        <v>22</v>
+      </c>
+      <c r="C313">
+        <v>0.75376833522464592</v>
+      </c>
+      <c r="D313">
+        <v>0.7508853804550536</v>
+      </c>
+      <c r="E313">
+        <v>0.75376833522464592</v>
+      </c>
+      <c r="F313">
+        <v>0.75918895240240858</v>
+      </c>
+      <c r="G313">
+        <v>0.74433506217106038</v>
+      </c>
+      <c r="H313">
+        <v>0.7640951368562654</v>
+      </c>
+      <c r="I313">
+        <v>0.75421509951366295</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>25</v>
+      </c>
+      <c r="B314" t="s">
+        <v>26</v>
+      </c>
+      <c r="C314">
+        <v>0.75233976379607459</v>
+      </c>
+      <c r="D314">
+        <v>0.75001775557069417</v>
+      </c>
+      <c r="E314">
+        <v>0.75233976379607459</v>
+      </c>
+      <c r="F314">
+        <v>0.75641693866634285</v>
+      </c>
+      <c r="G314">
+        <v>0.74535485105911803</v>
+      </c>
+      <c r="H314">
+        <v>0.76024533857862242</v>
+      </c>
+      <c r="I314">
+        <v>0.75280009481887022</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>25</v>
+      </c>
+      <c r="B315" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315">
+        <v>0.75143235405371334</v>
+      </c>
+      <c r="D315">
+        <v>0.74920969999157871</v>
+      </c>
+      <c r="E315">
+        <v>0.75143235405371334</v>
+      </c>
+      <c r="F315">
+        <v>0.75534188114229384</v>
+      </c>
+      <c r="G315">
+        <v>0.74487355783324072</v>
+      </c>
+      <c r="H315">
+        <v>0.75898461740871492</v>
+      </c>
+      <c r="I315">
+        <v>0.75192908762097777</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I315">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
@@ -2256,31 +11474,31 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>0.99844236760124616</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>0.9564990883042459</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>0.95664589823468327</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>0.95974908520648194</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>0.95327102803738317</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>0.96002076843198336</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>0.95664589823468316</v>
       </c>
     </row>
@@ -2288,31 +11506,31 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>0.99974039460020769</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>0.95681669928245272</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="11">
         <v>0.95703530633437173</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="11">
         <v>0.96170993968004193</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="11">
         <v>0.95197300103842164</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="11">
         <v>0.96209761163032192</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="11">
         <v>0.95703530633437184</v>
       </c>
     </row>
@@ -2320,31 +11538,31 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>0.82879023883696779</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>0.80897900072411311</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>0.82879023883696779</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>0.91483786439567638</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
         <v>0.72507788161993769</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="11">
         <v>0.93250259605399788</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>0.82879023883696779</v>
       </c>
     </row>
@@ -2352,33 +11570,101 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="11">
         <v>0.82178089304257529</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>0.81574718800214252</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>0.82139148494288683</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <v>0.84236725663716816</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="11">
         <v>0.79075804776739356</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="11">
         <v>0.8520249221183801</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <v>0.82139148494288672</v>
       </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.87110726643598613</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.87351443123938888</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.87110726643598613</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.86108786610878663</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.8863049095607235</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.85577758470894871</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.87104124713483611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.81543200999999998</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.80034099999999997</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.85120759999999995</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.830341</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.80103040000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.83075809</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.88543201000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
